--- a/public_list/20160801_20160831_public_list.xlsx
+++ b/public_list/20160801_20160831_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="2007">
   <si>
     <t>nid</t>
   </si>
@@ -6041,17 +6045,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6059,28 +6067,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6370,19 +6388,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6422,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -6414,7 +6438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9225492</v>
       </c>
@@ -6430,7 +6454,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20160802091918</v>
       </c>
       <c r="G2" t="s">
@@ -6446,7 +6470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9225493</v>
       </c>
@@ -6462,7 +6486,7 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20160802092007</v>
       </c>
       <c r="G3" t="s">
@@ -6478,7 +6502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9225494</v>
       </c>
@@ -6494,7 +6518,7 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20160802092436</v>
       </c>
       <c r="G4" t="s">
@@ -6510,7 +6534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9225495</v>
       </c>
@@ -6526,7 +6550,7 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>20160802093725</v>
       </c>
       <c r="G5" t="s">
@@ -6542,7 +6566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9225496</v>
       </c>
@@ -6558,7 +6582,7 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20160802100604</v>
       </c>
       <c r="G6" t="s">
@@ -6574,7 +6598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9225497</v>
       </c>
@@ -6590,7 +6614,7 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>20160802101007</v>
       </c>
       <c r="G7" t="s">
@@ -6606,7 +6630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9225498</v>
       </c>
@@ -6622,7 +6646,7 @@
       <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20160802110340</v>
       </c>
       <c r="G8" t="s">
@@ -6638,7 +6662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9225499</v>
       </c>
@@ -6654,7 +6678,7 @@
       <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G9" t="s">
@@ -6670,7 +6694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9225500</v>
       </c>
@@ -6686,7 +6710,7 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>20160802111545</v>
       </c>
       <c r="G10" t="s">
@@ -6702,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9225501</v>
       </c>
@@ -6718,7 +6742,7 @@
       <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>20160802112251</v>
       </c>
       <c r="G11" t="s">
@@ -6734,7 +6758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9234797</v>
       </c>
@@ -6750,7 +6774,7 @@
       <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>20160802123949</v>
       </c>
       <c r="G12" t="s">
@@ -6766,7 +6790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9234798</v>
       </c>
@@ -6782,7 +6806,7 @@
       <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>20160802124430</v>
       </c>
       <c r="G13" t="s">
@@ -6798,7 +6822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9234799</v>
       </c>
@@ -6814,7 +6838,7 @@
       <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>20160802132005</v>
       </c>
       <c r="G14" t="s">
@@ -6830,7 +6854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9234800</v>
       </c>
@@ -6846,7 +6870,7 @@
       <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>20160802133559</v>
       </c>
       <c r="G15" t="s">
@@ -6862,7 +6886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9234801</v>
       </c>
@@ -6878,7 +6902,7 @@
       <c r="E16" t="s">
         <v>84</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20160802133613</v>
       </c>
       <c r="G16" t="s">
@@ -6894,7 +6918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9234802</v>
       </c>
@@ -6910,7 +6934,7 @@
       <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>20160802133731</v>
       </c>
       <c r="G17" t="s">
@@ -6926,7 +6950,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9234803</v>
       </c>
@@ -6942,7 +6966,7 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>20160802134245</v>
       </c>
       <c r="G18" t="s">
@@ -6958,7 +6982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9234804</v>
       </c>
@@ -6974,7 +6998,7 @@
       <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>20160802134906</v>
       </c>
       <c r="G19" t="s">
@@ -6990,7 +7014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9234805</v>
       </c>
@@ -7006,7 +7030,7 @@
       <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>20160802135526</v>
       </c>
       <c r="G20" t="s">
@@ -7022,7 +7046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9234806</v>
       </c>
@@ -7038,7 +7062,7 @@
       <c r="E21" t="s">
         <v>111</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G21" t="s">
@@ -7054,7 +7078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9234807</v>
       </c>
@@ -7070,7 +7094,7 @@
       <c r="E22" t="s">
         <v>116</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>20160802140339</v>
       </c>
       <c r="G22" t="s">
@@ -7086,7 +7110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9241764</v>
       </c>
@@ -7102,7 +7126,7 @@
       <c r="E23" t="s">
         <v>121</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>20160802141324</v>
       </c>
       <c r="G23" t="s">
@@ -7118,7 +7142,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9241765</v>
       </c>
@@ -7134,7 +7158,7 @@
       <c r="E24" t="s">
         <v>127</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>20160802143151</v>
       </c>
       <c r="G24" t="s">
@@ -7150,7 +7174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9241766</v>
       </c>
@@ -7166,7 +7190,7 @@
       <c r="E25" t="s">
         <v>132</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G25" t="s">
@@ -7182,7 +7206,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9241767</v>
       </c>
@@ -7198,7 +7222,7 @@
       <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>20160802151243</v>
       </c>
       <c r="G26" t="s">
@@ -7214,7 +7238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9241769</v>
       </c>
@@ -7230,7 +7254,7 @@
       <c r="E27" t="s">
         <v>141</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20160802151718</v>
       </c>
       <c r="G27" t="s">
@@ -7246,7 +7270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9241770</v>
       </c>
@@ -7262,7 +7286,7 @@
       <c r="E28" t="s">
         <v>146</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>20160802151843</v>
       </c>
       <c r="G28" t="s">
@@ -7278,7 +7302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9241771</v>
       </c>
@@ -7294,7 +7318,7 @@
       <c r="E29" t="s">
         <v>151</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>20160802152824</v>
       </c>
       <c r="G29" t="s">
@@ -7310,7 +7334,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9241772</v>
       </c>
@@ -7326,7 +7350,7 @@
       <c r="E30" t="s">
         <v>156</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>20160802153017</v>
       </c>
       <c r="G30" t="s">
@@ -7342,7 +7366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9242657</v>
       </c>
@@ -7358,7 +7382,7 @@
       <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20160802154827</v>
       </c>
       <c r="G31" t="s">
@@ -7374,7 +7398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9242658</v>
       </c>
@@ -7390,7 +7414,7 @@
       <c r="E32" t="s">
         <v>166</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>20160802160718</v>
       </c>
       <c r="G32" t="s">
@@ -7406,7 +7430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9242661</v>
       </c>
@@ -7422,7 +7446,7 @@
       <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>20160802164032</v>
       </c>
       <c r="G33" t="s">
@@ -7438,7 +7462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9242662</v>
       </c>
@@ -7454,7 +7478,7 @@
       <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G34" t="s">
@@ -7470,7 +7494,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9242663</v>
       </c>
@@ -7486,7 +7510,7 @@
       <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20160802165546</v>
       </c>
       <c r="G35" t="s">
@@ -7502,7 +7526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9242665</v>
       </c>
@@ -7518,7 +7542,7 @@
       <c r="E36" t="s">
         <v>183</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>20160802171009</v>
       </c>
       <c r="G36" t="s">
@@ -7534,7 +7558,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9242666</v>
       </c>
@@ -7550,7 +7574,7 @@
       <c r="E37" t="s">
         <v>188</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G37" t="s">
@@ -7566,7 +7590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9242667</v>
       </c>
@@ -7582,7 +7606,7 @@
       <c r="E38" t="s">
         <v>193</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>20160802171634</v>
       </c>
       <c r="G38" t="s">
@@ -7598,7 +7622,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9242668</v>
       </c>
@@ -7614,7 +7638,7 @@
       <c r="E39" t="s">
         <v>198</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>20160802171907</v>
       </c>
       <c r="G39" t="s">
@@ -7630,7 +7654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9242669</v>
       </c>
@@ -7646,7 +7670,7 @@
       <c r="E40" t="s">
         <v>105</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>20160802172218</v>
       </c>
       <c r="G40" t="s">
@@ -7662,7 +7686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9242670</v>
       </c>
@@ -7678,7 +7702,7 @@
       <c r="E41" t="s">
         <v>207</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>20160802175557</v>
       </c>
       <c r="G41" t="s">
@@ -7694,7 +7718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9242671</v>
       </c>
@@ -7710,7 +7734,7 @@
       <c r="E42" t="s">
         <v>212</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>20160802175957</v>
       </c>
       <c r="G42" t="s">
@@ -7726,7 +7750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9242672</v>
       </c>
@@ -7742,7 +7766,7 @@
       <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>20160802181601</v>
       </c>
       <c r="G43" t="s">
@@ -7758,7 +7782,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9242673</v>
       </c>
@@ -7774,7 +7798,7 @@
       <c r="E44" t="s">
         <v>220</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>20160802181856</v>
       </c>
       <c r="G44" t="s">
@@ -7790,7 +7814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9242674</v>
       </c>
@@ -7806,7 +7830,7 @@
       <c r="E45" t="s">
         <v>225</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>20160802190052</v>
       </c>
       <c r="G45" t="s">
@@ -7822,7 +7846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9242675</v>
       </c>
@@ -7838,7 +7862,7 @@
       <c r="E46" t="s">
         <v>230</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>20160802193631</v>
       </c>
       <c r="G46" t="s">
@@ -7854,7 +7878,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9242676</v>
       </c>
@@ -7870,7 +7894,7 @@
       <c r="E47" t="s">
         <v>235</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G47" t="s">
@@ -7886,7 +7910,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9242677</v>
       </c>
@@ -7902,7 +7926,7 @@
       <c r="E48" t="s">
         <v>240</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>20160802203011</v>
       </c>
       <c r="G48" t="s">
@@ -7918,7 +7942,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9242678</v>
       </c>
@@ -7934,7 +7958,7 @@
       <c r="E49" t="s">
         <v>245</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G49" t="s">
@@ -7950,7 +7974,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9242679</v>
       </c>
@@ -7966,7 +7990,7 @@
       <c r="E50" t="s">
         <v>250</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>20160802204830</v>
       </c>
       <c r="G50" t="s">
@@ -7982,7 +8006,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9242681</v>
       </c>
@@ -7998,7 +8022,7 @@
       <c r="E51" t="s">
         <v>255</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>20160802000000</v>
       </c>
       <c r="G51" t="s">
@@ -8014,7 +8038,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9242682</v>
       </c>
@@ -8030,7 +8054,7 @@
       <c r="E52" t="s">
         <v>260</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>20160803041524</v>
       </c>
       <c r="G52" t="s">
@@ -8046,7 +8070,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9242683</v>
       </c>
@@ -8062,7 +8086,7 @@
       <c r="E53" t="s">
         <v>265</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>20160803075811</v>
       </c>
       <c r="G53" t="s">
@@ -8078,7 +8102,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9242684</v>
       </c>
@@ -8094,7 +8118,7 @@
       <c r="E54" t="s">
         <v>270</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>20160803084638</v>
       </c>
       <c r="G54" t="s">
@@ -8110,7 +8134,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9242685</v>
       </c>
@@ -8126,7 +8150,7 @@
       <c r="E55" t="s">
         <v>161</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>20160803085912</v>
       </c>
       <c r="G55" t="s">
@@ -8142,7 +8166,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9242686</v>
       </c>
@@ -8158,7 +8182,7 @@
       <c r="E56" t="s">
         <v>279</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>20160803090356</v>
       </c>
       <c r="G56" t="s">
@@ -8174,7 +8198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9242687</v>
       </c>
@@ -8190,7 +8214,7 @@
       <c r="E57" t="s">
         <v>284</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>20160803093100</v>
       </c>
       <c r="G57" t="s">
@@ -8206,7 +8230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9242688</v>
       </c>
@@ -8222,7 +8246,7 @@
       <c r="E58" t="s">
         <v>288</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>20160803094048</v>
       </c>
       <c r="G58" t="s">
@@ -8238,7 +8262,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9242689</v>
       </c>
@@ -8254,7 +8278,7 @@
       <c r="E59" t="s">
         <v>105</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G59" t="s">
@@ -8270,7 +8294,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9242690</v>
       </c>
@@ -8286,7 +8310,7 @@
       <c r="E60" t="s">
         <v>297</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>20160803094343</v>
       </c>
       <c r="G60" t="s">
@@ -8302,7 +8326,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9242691</v>
       </c>
@@ -8318,7 +8342,7 @@
       <c r="E61" t="s">
         <v>302</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>20160803100444</v>
       </c>
       <c r="G61" t="s">
@@ -8334,7 +8358,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9242692</v>
       </c>
@@ -8350,7 +8374,7 @@
       <c r="E62" t="s">
         <v>307</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>20160803100946</v>
       </c>
       <c r="G62" t="s">
@@ -8366,7 +8390,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9242693</v>
       </c>
@@ -8382,7 +8406,7 @@
       <c r="E63" t="s">
         <v>311</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>20160803102437</v>
       </c>
       <c r="G63" t="s">
@@ -8398,7 +8422,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9242694</v>
       </c>
@@ -8414,7 +8438,7 @@
       <c r="E64" t="s">
         <v>316</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>20160803104121</v>
       </c>
       <c r="G64" t="s">
@@ -8430,7 +8454,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9242695</v>
       </c>
@@ -8446,7 +8470,7 @@
       <c r="E65" t="s">
         <v>84</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>20160803104336</v>
       </c>
       <c r="G65" t="s">
@@ -8462,7 +8486,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9242696</v>
       </c>
@@ -8478,7 +8502,7 @@
       <c r="E66" t="s">
         <v>325</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>20160803104439</v>
       </c>
       <c r="G66" t="s">
@@ -8494,7 +8518,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9242698</v>
       </c>
@@ -8510,7 +8534,7 @@
       <c r="E67" t="s">
         <v>330</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G67" t="s">
@@ -8526,7 +8550,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9242699</v>
       </c>
@@ -8542,7 +8566,7 @@
       <c r="E68" t="s">
         <v>335</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>20160803112209</v>
       </c>
       <c r="G68" t="s">
@@ -8558,7 +8582,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9242700</v>
       </c>
@@ -8574,7 +8598,7 @@
       <c r="E69" t="s">
         <v>339</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>20160803112854</v>
       </c>
       <c r="G69" t="s">
@@ -8590,7 +8614,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9242701</v>
       </c>
@@ -8606,7 +8630,7 @@
       <c r="E70" t="s">
         <v>343</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>20160803113103</v>
       </c>
       <c r="G70" t="s">
@@ -8622,7 +8646,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9255056</v>
       </c>
@@ -8638,7 +8662,7 @@
       <c r="E71" t="s">
         <v>348</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G71" t="s">
@@ -8654,7 +8678,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9255057</v>
       </c>
@@ -8670,7 +8694,7 @@
       <c r="E72" t="s">
         <v>353</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>20160803130645</v>
       </c>
       <c r="G72" t="s">
@@ -8686,7 +8710,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9255058</v>
       </c>
@@ -8702,7 +8726,7 @@
       <c r="E73" t="s">
         <v>358</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>20160803131248</v>
       </c>
       <c r="G73" t="s">
@@ -8718,7 +8742,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9255059</v>
       </c>
@@ -8734,7 +8758,7 @@
       <c r="E74" t="s">
         <v>364</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>20160803132237</v>
       </c>
       <c r="G74" t="s">
@@ -8750,7 +8774,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9255060</v>
       </c>
@@ -8766,7 +8790,7 @@
       <c r="E75" t="s">
         <v>370</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>20160803133238</v>
       </c>
       <c r="G75" t="s">
@@ -8782,7 +8806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9255061</v>
       </c>
@@ -8798,7 +8822,7 @@
       <c r="E76" t="s">
         <v>375</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>20160803135531</v>
       </c>
       <c r="G76" t="s">
@@ -8814,7 +8838,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9255063</v>
       </c>
@@ -8830,7 +8854,7 @@
       <c r="E77" t="s">
         <v>44</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>20160803140806</v>
       </c>
       <c r="G77" t="s">
@@ -8846,7 +8870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9255065</v>
       </c>
@@ -8862,7 +8886,7 @@
       <c r="E78" t="s">
         <v>384</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>20160803141038</v>
       </c>
       <c r="G78" t="s">
@@ -8878,7 +8902,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>9255066</v>
       </c>
@@ -8894,7 +8918,7 @@
       <c r="E79" t="s">
         <v>389</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>20160803141243</v>
       </c>
       <c r="G79" t="s">
@@ -8910,7 +8934,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9255068</v>
       </c>
@@ -8926,7 +8950,7 @@
       <c r="E80" t="s">
         <v>394</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>20160803142039</v>
       </c>
       <c r="G80" t="s">
@@ -8942,7 +8966,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9255069</v>
       </c>
@@ -8958,7 +8982,7 @@
       <c r="E81" t="s">
         <v>399</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>20160803150157</v>
       </c>
       <c r="G81" t="s">
@@ -8974,7 +8998,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9255070</v>
       </c>
@@ -8990,7 +9014,7 @@
       <c r="E82" t="s">
         <v>404</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>20160803150834</v>
       </c>
       <c r="G82" t="s">
@@ -9006,7 +9030,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9255071</v>
       </c>
@@ -9022,7 +9046,7 @@
       <c r="E83" t="s">
         <v>39</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G83" t="s">
@@ -9038,7 +9062,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9255884</v>
       </c>
@@ -9054,7 +9078,7 @@
       <c r="E84" t="s">
         <v>220</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G84" t="s">
@@ -9070,7 +9094,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9255885</v>
       </c>
@@ -9086,7 +9110,7 @@
       <c r="E85" t="s">
         <v>416</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>20160803161144</v>
       </c>
       <c r="G85" t="s">
@@ -9102,7 +9126,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9255886</v>
       </c>
@@ -9118,7 +9142,7 @@
       <c r="E86" t="s">
         <v>421</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>20160803164405</v>
       </c>
       <c r="G86" t="s">
@@ -9134,7 +9158,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9255887</v>
       </c>
@@ -9150,7 +9174,7 @@
       <c r="E87" t="s">
         <v>426</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>20160803164751</v>
       </c>
       <c r="G87" t="s">
@@ -9166,7 +9190,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9255889</v>
       </c>
@@ -9182,7 +9206,7 @@
       <c r="E88" t="s">
         <v>364</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>20160803180906</v>
       </c>
       <c r="G88" t="s">
@@ -9198,7 +9222,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9255890</v>
       </c>
@@ -9214,7 +9238,7 @@
       <c r="E89" t="s">
         <v>434</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>20160803190150</v>
       </c>
       <c r="G89" t="s">
@@ -9230,7 +9254,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9255891</v>
       </c>
@@ -9246,7 +9270,7 @@
       <c r="E90" t="s">
         <v>439</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>20160803192201</v>
       </c>
       <c r="G90" t="s">
@@ -9262,7 +9286,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9255892</v>
       </c>
@@ -9278,7 +9302,7 @@
       <c r="E91" t="s">
         <v>444</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>20160804004021</v>
       </c>
       <c r="G91" t="s">
@@ -9294,7 +9318,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9255895</v>
       </c>
@@ -9310,7 +9334,7 @@
       <c r="E92" t="s">
         <v>449</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>20160804084323</v>
       </c>
       <c r="G92" t="s">
@@ -9326,7 +9350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9255896</v>
       </c>
@@ -9342,7 +9366,7 @@
       <c r="E93" t="s">
         <v>454</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>20160804000000</v>
       </c>
       <c r="G93" t="s">
@@ -9358,7 +9382,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9255897</v>
       </c>
@@ -9374,7 +9398,7 @@
       <c r="E94" t="s">
         <v>459</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>20160804093034</v>
       </c>
       <c r="G94" t="s">
@@ -9390,7 +9414,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9255898</v>
       </c>
@@ -9406,7 +9430,7 @@
       <c r="E95" t="s">
         <v>464</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>20160804093233</v>
       </c>
       <c r="G95" t="s">
@@ -9422,7 +9446,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9255899</v>
       </c>
@@ -9438,7 +9462,7 @@
       <c r="E96" t="s">
         <v>469</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>20160804094503</v>
       </c>
       <c r="G96" t="s">
@@ -9454,7 +9478,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9255900</v>
       </c>
@@ -9470,7 +9494,7 @@
       <c r="E97" t="s">
         <v>459</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>20160804094558</v>
       </c>
       <c r="G97" t="s">
@@ -9486,7 +9510,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9255901</v>
       </c>
@@ -9502,7 +9526,7 @@
       <c r="E98" t="s">
         <v>478</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>20160804095718</v>
       </c>
       <c r="G98" t="s">
@@ -9518,7 +9542,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9255902</v>
       </c>
@@ -9534,7 +9558,7 @@
       <c r="E99" t="s">
         <v>44</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>20160804100507</v>
       </c>
       <c r="G99" t="s">
@@ -9550,7 +9574,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9255903</v>
       </c>
@@ -9566,7 +9590,7 @@
       <c r="E100" t="s">
         <v>486</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>20160804100803</v>
       </c>
       <c r="G100" t="s">
@@ -9582,7 +9606,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9255904</v>
       </c>
@@ -9598,7 +9622,7 @@
       <c r="E101" t="s">
         <v>491</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>20160804102537</v>
       </c>
       <c r="G101" t="s">
@@ -9614,7 +9638,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9255905</v>
       </c>
@@ -9630,7 +9654,7 @@
       <c r="E102" t="s">
         <v>496</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>20160804000000</v>
       </c>
       <c r="G102" t="s">
@@ -9646,7 +9670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9255906</v>
       </c>
@@ -9662,7 +9686,7 @@
       <c r="E103" t="s">
         <v>501</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>20160804112121</v>
       </c>
       <c r="G103" t="s">
@@ -9678,7 +9702,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9267092</v>
       </c>
@@ -9694,7 +9718,7 @@
       <c r="E104" t="s">
         <v>459</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>20160804000000</v>
       </c>
       <c r="G104" t="s">
@@ -9710,7 +9734,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9267093</v>
       </c>
@@ -9726,7 +9750,7 @@
       <c r="E105" t="s">
         <v>459</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>20160804130814</v>
       </c>
       <c r="G105" t="s">
@@ -9742,7 +9766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9267094</v>
       </c>
@@ -9758,7 +9782,7 @@
       <c r="E106" t="s">
         <v>44</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>20160804133108</v>
       </c>
       <c r="G106" t="s">
@@ -9774,7 +9798,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9267095</v>
       </c>
@@ -9790,7 +9814,7 @@
       <c r="E107" t="s">
         <v>518</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>20160804134751</v>
       </c>
       <c r="G107" t="s">
@@ -9806,7 +9830,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9267097</v>
       </c>
@@ -9822,7 +9846,7 @@
       <c r="E108" t="s">
         <v>459</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>20160804135702</v>
       </c>
       <c r="G108" t="s">
@@ -9838,7 +9862,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9267098</v>
       </c>
@@ -9854,7 +9878,7 @@
       <c r="E109" t="s">
         <v>527</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>20160804151002</v>
       </c>
       <c r="G109" t="s">
@@ -9870,7 +9894,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9267099</v>
       </c>
@@ -9886,7 +9910,7 @@
       <c r="E110" t="s">
         <v>532</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>20160804151020</v>
       </c>
       <c r="G110" t="s">
@@ -9902,7 +9926,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9267865</v>
       </c>
@@ -9918,7 +9942,7 @@
       <c r="E111" t="s">
         <v>105</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>20160804153755</v>
       </c>
       <c r="G111" t="s">
@@ -9934,7 +9958,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9267866</v>
       </c>
@@ -9950,7 +9974,7 @@
       <c r="E112" t="s">
         <v>44</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>20160804155416</v>
       </c>
       <c r="G112" t="s">
@@ -9966,7 +9990,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9267867</v>
       </c>
@@ -9982,7 +10006,7 @@
       <c r="E113" t="s">
         <v>545</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>20160804155638</v>
       </c>
       <c r="G113" t="s">
@@ -9998,7 +10022,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9267868</v>
       </c>
@@ -10014,7 +10038,7 @@
       <c r="E114" t="s">
         <v>550</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>20160804160949</v>
       </c>
       <c r="G114" t="s">
@@ -10030,7 +10054,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9267869</v>
       </c>
@@ -10046,7 +10070,7 @@
       <c r="E115" t="s">
         <v>555</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>20160804163405</v>
       </c>
       <c r="G115" t="s">
@@ -10062,7 +10086,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9267870</v>
       </c>
@@ -10078,7 +10102,7 @@
       <c r="E116" t="s">
         <v>560</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="1">
         <v>20160804163819</v>
       </c>
       <c r="G116" t="s">
@@ -10094,7 +10118,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9267872</v>
       </c>
@@ -10110,7 +10134,7 @@
       <c r="E117" t="s">
         <v>565</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>20160804171638</v>
       </c>
       <c r="G117" t="s">
@@ -10126,7 +10150,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9267873</v>
       </c>
@@ -10142,7 +10166,7 @@
       <c r="E118" t="s">
         <v>570</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>20160804173917</v>
       </c>
       <c r="G118" t="s">
@@ -10158,7 +10182,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9267874</v>
       </c>
@@ -10174,7 +10198,7 @@
       <c r="E119" t="s">
         <v>575</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>20160804174327</v>
       </c>
       <c r="G119" t="s">
@@ -10190,7 +10214,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9267875</v>
       </c>
@@ -10206,7 +10230,7 @@
       <c r="E120" t="s">
         <v>580</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>20160804175219</v>
       </c>
       <c r="G120" t="s">
@@ -10222,7 +10246,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9267877</v>
       </c>
@@ -10238,7 +10262,7 @@
       <c r="E121" t="s">
         <v>585</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>20160804180016</v>
       </c>
       <c r="G121" t="s">
@@ -10254,7 +10278,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9267878</v>
       </c>
@@ -10270,7 +10294,7 @@
       <c r="E122" t="s">
         <v>585</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>20160804180143</v>
       </c>
       <c r="G122" t="s">
@@ -10286,7 +10310,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>9267971</v>
       </c>
@@ -10302,7 +10326,7 @@
       <c r="E123" t="s">
         <v>593</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>20160804182208</v>
       </c>
       <c r="G123" t="s">
@@ -10318,7 +10342,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>9267972</v>
       </c>
@@ -10334,7 +10358,7 @@
       <c r="E124" t="s">
         <v>105</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>20160804203151</v>
       </c>
       <c r="G124" t="s">
@@ -10350,7 +10374,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9267973</v>
       </c>
@@ -10366,7 +10390,7 @@
       <c r="E125" t="s">
         <v>602</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>20160804215245</v>
       </c>
       <c r="G125" t="s">
@@ -10382,7 +10406,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>9267975</v>
       </c>
@@ -10398,7 +10422,7 @@
       <c r="E126" t="s">
         <v>370</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G126" t="s">
@@ -10414,7 +10438,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9267976</v>
       </c>
@@ -10430,7 +10454,7 @@
       <c r="E127" t="s">
         <v>611</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>20160805093543</v>
       </c>
       <c r="G127" t="s">
@@ -10446,7 +10470,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>9267977</v>
       </c>
@@ -10462,7 +10486,7 @@
       <c r="E128" t="s">
         <v>616</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>20160805101408</v>
       </c>
       <c r="G128" t="s">
@@ -10478,7 +10502,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9267978</v>
       </c>
@@ -10494,7 +10518,7 @@
       <c r="E129" t="s">
         <v>621</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G129" t="s">
@@ -10510,7 +10534,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9267979</v>
       </c>
@@ -10526,7 +10550,7 @@
       <c r="E130" t="s">
         <v>626</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>20160805111523</v>
       </c>
       <c r="G130" t="s">
@@ -10542,7 +10566,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9267980</v>
       </c>
@@ -10558,7 +10582,7 @@
       <c r="E131" t="s">
         <v>585</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
         <v>20160805112145</v>
       </c>
       <c r="G131" t="s">
@@ -10574,7 +10598,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9267981</v>
       </c>
@@ -10590,7 +10614,7 @@
       <c r="E132" t="s">
         <v>585</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
         <v>20160805112316</v>
       </c>
       <c r="G132" t="s">
@@ -10606,7 +10630,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9280086</v>
       </c>
@@ -10622,7 +10646,7 @@
       <c r="E133" t="s">
         <v>105</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>20160805113927</v>
       </c>
       <c r="G133" t="s">
@@ -10638,7 +10662,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9280087</v>
       </c>
@@ -10654,7 +10678,7 @@
       <c r="E134" t="s">
         <v>642</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>20160805113954</v>
       </c>
       <c r="G134" t="s">
@@ -10670,7 +10694,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9280088</v>
       </c>
@@ -10686,7 +10710,7 @@
       <c r="E135" t="s">
         <v>370</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>20160805140335</v>
       </c>
       <c r="G135" t="s">
@@ -10702,7 +10726,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9280089</v>
       </c>
@@ -10718,7 +10742,7 @@
       <c r="E136" t="s">
         <v>651</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G136" t="s">
@@ -10734,7 +10758,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9280090</v>
       </c>
@@ -10750,7 +10774,7 @@
       <c r="E137" t="s">
         <v>656</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>20160805143419</v>
       </c>
       <c r="G137" t="s">
@@ -10766,7 +10790,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9280091</v>
       </c>
@@ -10782,7 +10806,7 @@
       <c r="E138" t="s">
         <v>661</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>20160805145330</v>
       </c>
       <c r="G138" t="s">
@@ -10798,7 +10822,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9280092</v>
       </c>
@@ -10814,7 +10838,7 @@
       <c r="E139" t="s">
         <v>666</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G139" t="s">
@@ -10830,7 +10854,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9280954</v>
       </c>
@@ -10846,7 +10870,7 @@
       <c r="E140" t="s">
         <v>39</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G140" t="s">
@@ -10862,7 +10886,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9280955</v>
       </c>
@@ -10878,7 +10902,7 @@
       <c r="E141" t="s">
         <v>585</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>20160805000000</v>
       </c>
       <c r="G141" t="s">
@@ -10894,7 +10918,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9280956</v>
       </c>
@@ -10910,7 +10934,7 @@
       <c r="E142" t="s">
         <v>570</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>20160805162227</v>
       </c>
       <c r="G142" t="s">
@@ -10926,7 +10950,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>9280957</v>
       </c>
@@ -10942,7 +10966,7 @@
       <c r="E143" t="s">
         <v>137</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>20160805170814</v>
       </c>
       <c r="G143" t="s">
@@ -10958,7 +10982,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9280958</v>
       </c>
@@ -10974,7 +10998,7 @@
       <c r="E144" t="s">
         <v>687</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>20160805171314</v>
       </c>
       <c r="G144" t="s">
@@ -10990,7 +11014,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>9280959</v>
       </c>
@@ -11006,7 +11030,7 @@
       <c r="E145" t="s">
         <v>459</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>20160805175432</v>
       </c>
       <c r="G145" t="s">
@@ -11022,7 +11046,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9280960</v>
       </c>
@@ -11038,7 +11062,7 @@
       <c r="E146" t="s">
         <v>696</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="1">
         <v>20160805190950</v>
       </c>
       <c r="G146" t="s">
@@ -11054,7 +11078,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9280961</v>
       </c>
@@ -11070,7 +11094,7 @@
       <c r="E147" t="s">
         <v>94</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
         <v>20160805200304</v>
       </c>
       <c r="G147" t="s">
@@ -11086,7 +11110,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9280962</v>
       </c>
@@ -11102,7 +11126,7 @@
       <c r="E148" t="s">
         <v>459</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="1">
         <v>20160805202818</v>
       </c>
       <c r="G148" t="s">
@@ -11118,7 +11142,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9280992</v>
       </c>
@@ -11134,7 +11158,7 @@
       <c r="E149" t="s">
         <v>709</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>20160806063647</v>
       </c>
       <c r="G149" t="s">
@@ -11150,7 +11174,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>9280993</v>
       </c>
@@ -11166,7 +11190,7 @@
       <c r="E150" t="s">
         <v>156</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
         <v>20160806101421</v>
       </c>
       <c r="G150" t="s">
@@ -11182,7 +11206,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9292807</v>
       </c>
@@ -11198,7 +11222,7 @@
       <c r="E151" t="s">
         <v>718</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>20160806150912</v>
       </c>
       <c r="G151" t="s">
@@ -11214,7 +11238,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>9292808</v>
       </c>
@@ -11230,7 +11254,7 @@
       <c r="E152" t="s">
         <v>723</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>20160806000000</v>
       </c>
       <c r="G152" t="s">
@@ -11246,7 +11270,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9293576</v>
       </c>
@@ -11262,7 +11286,7 @@
       <c r="E153" t="s">
         <v>39</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>20160806180017</v>
       </c>
       <c r="G153" t="s">
@@ -11278,7 +11302,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9293577</v>
       </c>
@@ -11294,7 +11318,7 @@
       <c r="E154" t="s">
         <v>156</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>20160806190822</v>
       </c>
       <c r="G154" t="s">
@@ -11310,7 +11334,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9293578</v>
       </c>
@@ -11326,7 +11350,7 @@
       <c r="E155" t="s">
         <v>737</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
         <v>20160807090234</v>
       </c>
       <c r="G155" t="s">
@@ -11342,7 +11366,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>9293579</v>
       </c>
@@ -11358,7 +11382,7 @@
       <c r="E156" t="s">
         <v>742</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
         <v>20160807000000</v>
       </c>
       <c r="G156" t="s">
@@ -11374,7 +11398,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9293580</v>
       </c>
@@ -11390,7 +11414,7 @@
       <c r="E157" t="s">
         <v>747</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
         <v>20160807110727</v>
       </c>
       <c r="G157" t="s">
@@ -11406,7 +11430,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9293742</v>
       </c>
@@ -11422,7 +11446,7 @@
       <c r="E158" t="s">
         <v>752</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="1">
         <v>20160807000000</v>
       </c>
       <c r="G158" t="s">
@@ -11438,7 +11462,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9293743</v>
       </c>
@@ -11454,7 +11478,7 @@
       <c r="E159" t="s">
         <v>757</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>20160807143310</v>
       </c>
       <c r="G159" t="s">
@@ -11470,7 +11494,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9293744</v>
       </c>
@@ -11486,7 +11510,7 @@
       <c r="E160" t="s">
         <v>762</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>20160807144600</v>
       </c>
       <c r="G160" t="s">
@@ -11502,7 +11526,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9293745</v>
       </c>
@@ -11518,7 +11542,7 @@
       <c r="E161" t="s">
         <v>44</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
         <v>20160807150002</v>
       </c>
       <c r="G161" t="s">
@@ -11534,7 +11558,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>9293751</v>
       </c>
@@ -11550,7 +11574,7 @@
       <c r="E162" t="s">
         <v>771</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>20160808083947</v>
       </c>
       <c r="G162" t="s">
@@ -11566,7 +11590,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>9293752</v>
       </c>
@@ -11582,7 +11606,7 @@
       <c r="E163" t="s">
         <v>776</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>20160808085049</v>
       </c>
       <c r="G163" t="s">
@@ -11598,7 +11622,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>9293753</v>
       </c>
@@ -11614,7 +11638,7 @@
       <c r="E164" t="s">
         <v>781</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
         <v>20160808091211</v>
       </c>
       <c r="G164" t="s">
@@ -11630,7 +11654,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>9293754</v>
       </c>
@@ -11646,7 +11670,7 @@
       <c r="E165" t="s">
         <v>786</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
         <v>20160808000000</v>
       </c>
       <c r="G165" t="s">
@@ -11662,7 +11686,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>9293755</v>
       </c>
@@ -11678,7 +11702,7 @@
       <c r="E166" t="s">
         <v>791</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
         <v>20160808091822</v>
       </c>
       <c r="G166" t="s">
@@ -11694,7 +11718,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9293756</v>
       </c>
@@ -11710,7 +11734,7 @@
       <c r="E167" t="s">
         <v>796</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="1">
         <v>20160808103806</v>
       </c>
       <c r="G167" t="s">
@@ -11726,7 +11750,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>9293757</v>
       </c>
@@ -11742,7 +11766,7 @@
       <c r="E168" t="s">
         <v>339</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
         <v>20160808104652</v>
       </c>
       <c r="G168" t="s">
@@ -11758,7 +11782,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>9293972</v>
       </c>
@@ -11774,7 +11798,7 @@
       <c r="E169" t="s">
         <v>105</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
         <v>20160808112647</v>
       </c>
       <c r="G169" t="s">
@@ -11790,7 +11814,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>9293973</v>
       </c>
@@ -11806,7 +11830,7 @@
       <c r="E170" t="s">
         <v>809</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
         <v>20160808130504</v>
       </c>
       <c r="G170" t="s">
@@ -11822,7 +11846,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9293974</v>
       </c>
@@ -11838,7 +11862,7 @@
       <c r="E171" t="s">
         <v>39</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="1">
         <v>20160808130529</v>
       </c>
       <c r="G171" t="s">
@@ -11854,7 +11878,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9293975</v>
       </c>
@@ -11870,7 +11894,7 @@
       <c r="E172" t="s">
         <v>818</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
         <v>20160808000000</v>
       </c>
       <c r="G172" t="s">
@@ -11886,7 +11910,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>9293976</v>
       </c>
@@ -11902,7 +11926,7 @@
       <c r="E173" t="s">
         <v>823</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="1">
         <v>20160808140100</v>
       </c>
       <c r="G173" t="s">
@@ -11918,7 +11942,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9293977</v>
       </c>
@@ -11934,7 +11958,7 @@
       <c r="E174" t="s">
         <v>828</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
         <v>20160808140615</v>
       </c>
       <c r="G174" t="s">
@@ -11950,7 +11974,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9293978</v>
       </c>
@@ -11966,7 +11990,7 @@
       <c r="E175" t="s">
         <v>833</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
         <v>20160808141807</v>
       </c>
       <c r="G175" t="s">
@@ -11982,7 +12006,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9293979</v>
       </c>
@@ -11998,7 +12022,7 @@
       <c r="E176" t="s">
         <v>156</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
         <v>20160808142505</v>
       </c>
       <c r="G176" t="s">
@@ -12014,7 +12038,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9293980</v>
       </c>
@@ -12030,7 +12054,7 @@
       <c r="E177" t="s">
         <v>842</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="1">
         <v>20160808143418</v>
       </c>
       <c r="G177" t="s">
@@ -12046,7 +12070,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>9293981</v>
       </c>
@@ -12062,7 +12086,7 @@
       <c r="E178" t="s">
         <v>842</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
         <v>20160808143553</v>
       </c>
       <c r="G178" t="s">
@@ -12078,7 +12102,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9293983</v>
       </c>
@@ -12094,7 +12118,7 @@
       <c r="E179" t="s">
         <v>849</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
         <v>20160808150120</v>
       </c>
       <c r="G179" t="s">
@@ -12110,7 +12134,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9293984</v>
       </c>
@@ -12126,7 +12150,7 @@
       <c r="E180" t="s">
         <v>854</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="1">
         <v>20160808151802</v>
       </c>
       <c r="G180" t="s">
@@ -12142,7 +12166,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9293985</v>
       </c>
@@ -12158,7 +12182,7 @@
       <c r="E181" t="s">
         <v>859</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
         <v>20160808151908</v>
       </c>
       <c r="G181" t="s">
@@ -12174,7 +12198,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9293986</v>
       </c>
@@ -12190,7 +12214,7 @@
       <c r="E182" t="s">
         <v>626</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>20160808152652</v>
       </c>
       <c r="G182" t="s">
@@ -12206,7 +12230,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9294040</v>
       </c>
@@ -12222,7 +12246,7 @@
       <c r="E183" t="s">
         <v>868</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="1">
         <v>20160808153725</v>
       </c>
       <c r="G183" t="s">
@@ -12238,7 +12262,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9294041</v>
       </c>
@@ -12254,7 +12278,7 @@
       <c r="E184" t="s">
         <v>873</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>20160808154200</v>
       </c>
       <c r="G184" t="s">
@@ -12270,7 +12294,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9294042</v>
       </c>
@@ -12286,7 +12310,7 @@
       <c r="E185" t="s">
         <v>585</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="1">
         <v>20160808154940</v>
       </c>
       <c r="G185" t="s">
@@ -12302,7 +12326,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9294043</v>
       </c>
@@ -12318,7 +12342,7 @@
       <c r="E186" t="s">
         <v>882</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>20160808162229</v>
       </c>
       <c r="G186" t="s">
@@ -12334,7 +12358,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9294044</v>
       </c>
@@ -12350,7 +12374,7 @@
       <c r="E187" t="s">
         <v>94</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="1">
         <v>20160808162335</v>
       </c>
       <c r="G187" t="s">
@@ -12366,7 +12390,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9294045</v>
       </c>
@@ -12382,7 +12406,7 @@
       <c r="E188" t="s">
         <v>891</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
         <v>20160808163838</v>
       </c>
       <c r="G188" t="s">
@@ -12398,7 +12422,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9294046</v>
       </c>
@@ -12414,7 +12438,7 @@
       <c r="E189" t="s">
         <v>896</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="1">
         <v>20160808165451</v>
       </c>
       <c r="G189" t="s">
@@ -12430,7 +12454,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9294047</v>
       </c>
@@ -12446,7 +12470,7 @@
       <c r="E190" t="s">
         <v>626</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="1">
         <v>20160808170501</v>
       </c>
       <c r="G190" t="s">
@@ -12462,7 +12486,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9294048</v>
       </c>
@@ -12478,7 +12502,7 @@
       <c r="E191" t="s">
         <v>44</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>20160808174044</v>
       </c>
       <c r="G191" t="s">
@@ -12494,7 +12518,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9294049</v>
       </c>
@@ -12510,7 +12534,7 @@
       <c r="E192" t="s">
         <v>909</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>20160808175643</v>
       </c>
       <c r="G192" t="s">
@@ -12526,7 +12550,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9294050</v>
       </c>
@@ -12542,7 +12566,7 @@
       <c r="E193" t="s">
         <v>914</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
         <v>20160808180526</v>
       </c>
       <c r="G193" t="s">
@@ -12558,7 +12582,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9294051</v>
       </c>
@@ -12574,7 +12598,7 @@
       <c r="E194" t="s">
         <v>919</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
         <v>20160808181142</v>
       </c>
       <c r="G194" t="s">
@@ -12590,7 +12614,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9294052</v>
       </c>
@@ -12606,7 +12630,7 @@
       <c r="E195" t="s">
         <v>924</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
         <v>20160808181527</v>
       </c>
       <c r="G195" t="s">
@@ -12622,7 +12646,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9294053</v>
       </c>
@@ -12638,7 +12662,7 @@
       <c r="E196" t="s">
         <v>823</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="1">
         <v>20160808181934</v>
       </c>
       <c r="G196" t="s">
@@ -12654,7 +12678,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9294054</v>
       </c>
@@ -12670,7 +12694,7 @@
       <c r="E197" t="s">
         <v>161</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="1">
         <v>20160808194118</v>
       </c>
       <c r="G197" t="s">
@@ -12686,7 +12710,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9294055</v>
       </c>
@@ -12702,7 +12726,7 @@
       <c r="E198" t="s">
         <v>938</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="1">
         <v>20160808194328</v>
       </c>
       <c r="G198" t="s">
@@ -12718,7 +12742,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9294056</v>
       </c>
@@ -12734,7 +12758,7 @@
       <c r="E199" t="s">
         <v>943</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="1">
         <v>20160808194637</v>
       </c>
       <c r="G199" t="s">
@@ -12750,7 +12774,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>9294057</v>
       </c>
@@ -12766,7 +12790,7 @@
       <c r="E200" t="s">
         <v>161</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
         <v>20160808201432</v>
       </c>
       <c r="G200" t="s">
@@ -12782,7 +12806,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9294058</v>
       </c>
@@ -12798,7 +12822,7 @@
       <c r="E201" t="s">
         <v>952</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="1">
         <v>20160808210153</v>
       </c>
       <c r="G201" t="s">
@@ -12814,7 +12838,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9294059</v>
       </c>
@@ -12830,7 +12854,7 @@
       <c r="E202" t="s">
         <v>957</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
         <v>20160808214426</v>
       </c>
       <c r="G202" t="s">
@@ -12846,7 +12870,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9294060</v>
       </c>
@@ -12862,7 +12886,7 @@
       <c r="E203" t="s">
         <v>962</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
         <v>20160808220542</v>
       </c>
       <c r="G203" t="s">
@@ -12878,7 +12902,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9294061</v>
       </c>
@@ -12894,7 +12918,7 @@
       <c r="E204" t="s">
         <v>966</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
         <v>20160809090947</v>
       </c>
       <c r="G204" t="s">
@@ -12910,7 +12934,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9294062</v>
       </c>
@@ -12926,7 +12950,7 @@
       <c r="E205" t="s">
         <v>970</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
         <v>20160809093221</v>
       </c>
       <c r="G205" t="s">
@@ -12942,7 +12966,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9294063</v>
       </c>
@@ -12958,7 +12982,7 @@
       <c r="E206" t="s">
         <v>975</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>20160809093313</v>
       </c>
       <c r="G206" t="s">
@@ -12974,7 +12998,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9294064</v>
       </c>
@@ -12990,7 +13014,7 @@
       <c r="E207" t="s">
         <v>980</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="1">
         <v>20160809094420</v>
       </c>
       <c r="G207" t="s">
@@ -13006,7 +13030,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9294065</v>
       </c>
@@ -13022,7 +13046,7 @@
       <c r="E208" t="s">
         <v>985</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="1">
         <v>20160809094950</v>
       </c>
       <c r="G208" t="s">
@@ -13038,7 +13062,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9294066</v>
       </c>
@@ -13054,7 +13078,7 @@
       <c r="E209" t="s">
         <v>161</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>20160809100405</v>
       </c>
       <c r="G209" t="s">
@@ -13070,7 +13094,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9294067</v>
       </c>
@@ -13086,7 +13110,7 @@
       <c r="E210" t="s">
         <v>459</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="1">
         <v>20160809100549</v>
       </c>
       <c r="G210" t="s">
@@ -13102,7 +13126,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9294068</v>
       </c>
@@ -13118,7 +13142,7 @@
       <c r="E211" t="s">
         <v>998</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
         <v>20160809101001</v>
       </c>
       <c r="G211" t="s">
@@ -13134,7 +13158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9294069</v>
       </c>
@@ -13150,7 +13174,7 @@
       <c r="E212" t="s">
         <v>1003</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>20160809101827</v>
       </c>
       <c r="G212" t="s">
@@ -13166,7 +13190,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9294070</v>
       </c>
@@ -13182,7 +13206,7 @@
       <c r="E213" t="s">
         <v>998</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="1">
         <v>20160809102024</v>
       </c>
       <c r="G213" t="s">
@@ -13198,7 +13222,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9294071</v>
       </c>
@@ -13214,7 +13238,7 @@
       <c r="E214" t="s">
         <v>998</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
         <v>20160809102228</v>
       </c>
       <c r="G214" t="s">
@@ -13230,7 +13254,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9294072</v>
       </c>
@@ -13246,7 +13270,7 @@
       <c r="E215" t="s">
         <v>998</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="1">
         <v>20160809102714</v>
       </c>
       <c r="G215" t="s">
@@ -13262,7 +13286,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9294073</v>
       </c>
@@ -13278,7 +13302,7 @@
       <c r="E216" t="s">
         <v>1014</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="1">
         <v>20160809104400</v>
       </c>
       <c r="G216" t="s">
@@ -13294,7 +13318,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9294074</v>
       </c>
@@ -13310,7 +13334,7 @@
       <c r="E217" t="s">
         <v>212</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="1">
         <v>20160809104629</v>
       </c>
       <c r="G217" t="s">
@@ -13326,7 +13350,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>9294075</v>
       </c>
@@ -13342,7 +13366,7 @@
       <c r="E218" t="s">
         <v>1023</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
         <v>20160809105221</v>
       </c>
       <c r="G218" t="s">
@@ -13358,7 +13382,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>9294076</v>
       </c>
@@ -13374,7 +13398,7 @@
       <c r="E219" t="s">
         <v>1028</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="1">
         <v>20160809110205</v>
       </c>
       <c r="G219" t="s">
@@ -13390,7 +13414,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9294077</v>
       </c>
@@ -13406,7 +13430,7 @@
       <c r="E220" t="s">
         <v>687</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="1">
         <v>20160809112401</v>
       </c>
       <c r="G220" t="s">
@@ -13422,7 +13446,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>9294078</v>
       </c>
@@ -13438,7 +13462,7 @@
       <c r="E221" t="s">
         <v>1037</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="1">
         <v>20160809112751</v>
       </c>
       <c r="G221" t="s">
@@ -13454,7 +13478,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9294079</v>
       </c>
@@ -13470,7 +13494,7 @@
       <c r="E222" t="s">
         <v>1042</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="1">
         <v>20160809113758</v>
       </c>
       <c r="G222" t="s">
@@ -13486,7 +13510,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9311781</v>
       </c>
@@ -13502,7 +13526,7 @@
       <c r="E223" t="s">
         <v>1047</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="1">
         <v>20160809125218</v>
       </c>
       <c r="G223" t="s">
@@ -13518,7 +13542,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9311782</v>
       </c>
@@ -13534,7 +13558,7 @@
       <c r="E224" t="s">
         <v>1052</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="1">
         <v>20160809133600</v>
       </c>
       <c r="G224" t="s">
@@ -13550,7 +13574,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>9311783</v>
       </c>
@@ -13566,7 +13590,7 @@
       <c r="E225" t="s">
         <v>1056</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="1">
         <v>20160809140342</v>
       </c>
       <c r="G225" t="s">
@@ -13582,7 +13606,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>9311784</v>
       </c>
@@ -13598,7 +13622,7 @@
       <c r="E226" t="s">
         <v>105</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="1">
         <v>20160809140840</v>
       </c>
       <c r="G226" t="s">
@@ -13614,7 +13638,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>9311785</v>
       </c>
@@ -13630,7 +13654,7 @@
       <c r="E227" t="s">
         <v>1065</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
         <v>20160809144214</v>
       </c>
       <c r="G227" t="s">
@@ -13646,7 +13670,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>9311786</v>
       </c>
@@ -13662,7 +13686,7 @@
       <c r="E228" t="s">
         <v>1069</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
         <v>20160809145006</v>
       </c>
       <c r="G228" t="s">
@@ -13678,7 +13702,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>9311787</v>
       </c>
@@ -13694,7 +13718,7 @@
       <c r="E229" t="s">
         <v>1074</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="1">
         <v>20160809145306</v>
       </c>
       <c r="G229" t="s">
@@ -13710,7 +13734,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>9311788</v>
       </c>
@@ -13726,7 +13750,7 @@
       <c r="E230" t="s">
         <v>1079</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="1">
         <v>20160809145748</v>
       </c>
       <c r="G230" t="s">
@@ -13742,7 +13766,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>9311789</v>
       </c>
@@ -13758,7 +13782,7 @@
       <c r="E231" t="s">
         <v>302</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="1">
         <v>20160809151056</v>
       </c>
       <c r="G231" t="s">
@@ -13774,7 +13798,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9312599</v>
       </c>
@@ -13790,7 +13814,7 @@
       <c r="E232" t="s">
         <v>661</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="1">
         <v>20160809153717</v>
       </c>
       <c r="G232" t="s">
@@ -13806,7 +13830,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>9312600</v>
       </c>
@@ -13822,7 +13846,7 @@
       <c r="E233" t="s">
         <v>1091</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="1">
         <v>20160809154221</v>
       </c>
       <c r="G233" t="s">
@@ -13838,7 +13862,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>9312601</v>
       </c>
@@ -13854,7 +13878,7 @@
       <c r="E234" t="s">
         <v>1096</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="1">
         <v>20160809155640</v>
       </c>
       <c r="G234" t="s">
@@ -13870,7 +13894,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9312602</v>
       </c>
@@ -13886,7 +13910,7 @@
       <c r="E235" t="s">
         <v>1100</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="1">
         <v>20160809155721</v>
       </c>
       <c r="G235" t="s">
@@ -13902,7 +13926,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>9312603</v>
       </c>
@@ -13918,7 +13942,7 @@
       <c r="E236" t="s">
         <v>1096</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="1">
         <v>20160809155802</v>
       </c>
       <c r="G236" t="s">
@@ -13934,7 +13958,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>9312604</v>
       </c>
@@ -13950,7 +13974,7 @@
       <c r="E237" t="s">
         <v>1096</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="1">
         <v>20160809155850</v>
       </c>
       <c r="G237" t="s">
@@ -13966,7 +13990,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9312605</v>
       </c>
@@ -13982,7 +14006,7 @@
       <c r="E238" t="s">
         <v>1100</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="1">
         <v>20160809155915</v>
       </c>
       <c r="G238" t="s">
@@ -13998,7 +14022,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9312606</v>
       </c>
@@ -14014,7 +14038,7 @@
       <c r="E239" t="s">
         <v>1096</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="1">
         <v>20160809155939</v>
       </c>
       <c r="G239" t="s">
@@ -14030,7 +14054,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9312607</v>
       </c>
@@ -14046,7 +14070,7 @@
       <c r="E240" t="s">
         <v>1100</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="1">
         <v>20160809160016</v>
       </c>
       <c r="G240" t="s">
@@ -14062,7 +14086,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9312608</v>
       </c>
@@ -14078,7 +14102,7 @@
       <c r="E241" t="s">
         <v>1096</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="1">
         <v>20160809160031</v>
       </c>
       <c r="G241" t="s">
@@ -14094,7 +14118,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9312609</v>
       </c>
@@ -14110,7 +14134,7 @@
       <c r="E242" t="s">
         <v>1116</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="1">
         <v>20160809160034</v>
       </c>
       <c r="G242" t="s">
@@ -14126,7 +14150,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9312610</v>
       </c>
@@ -14142,7 +14166,7 @@
       <c r="E243" t="s">
         <v>1096</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="1">
         <v>20160809160115</v>
       </c>
       <c r="G243" t="s">
@@ -14158,7 +14182,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9312611</v>
       </c>
@@ -14174,7 +14198,7 @@
       <c r="E244" t="s">
         <v>1116</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="1">
         <v>20160809160151</v>
       </c>
       <c r="G244" t="s">
@@ -14190,7 +14214,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9312612</v>
       </c>
@@ -14206,7 +14230,7 @@
       <c r="E245" t="s">
         <v>1096</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="1">
         <v>20160809160201</v>
       </c>
       <c r="G245" t="s">
@@ -14222,7 +14246,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9312613</v>
       </c>
@@ -14238,7 +14262,7 @@
       <c r="E246" t="s">
         <v>1100</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="1">
         <v>20160809160203</v>
       </c>
       <c r="G246" t="s">
@@ -14254,7 +14278,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9312614</v>
       </c>
@@ -14270,7 +14294,7 @@
       <c r="E247" t="s">
         <v>1100</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="1">
         <v>20160809160316</v>
       </c>
       <c r="G247" t="s">
@@ -14286,7 +14310,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9312615</v>
       </c>
@@ -14302,7 +14326,7 @@
       <c r="E248" t="s">
         <v>1116</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="1">
         <v>20160809160321</v>
       </c>
       <c r="G248" t="s">
@@ -14318,7 +14342,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9312616</v>
       </c>
@@ -14334,7 +14358,7 @@
       <c r="E249" t="s">
         <v>1116</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="1">
         <v>20160809160400</v>
       </c>
       <c r="G249" t="s">
@@ -14350,7 +14374,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9312618</v>
       </c>
@@ -14366,7 +14390,7 @@
       <c r="E250" t="s">
         <v>1100</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="1">
         <v>20160809160432</v>
       </c>
       <c r="G250" t="s">
@@ -14382,7 +14406,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9312619</v>
       </c>
@@ -14398,7 +14422,7 @@
       <c r="E251" t="s">
         <v>1116</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="1">
         <v>20160809160436</v>
       </c>
       <c r="G251" t="s">
@@ -14414,7 +14438,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>9312621</v>
       </c>
@@ -14430,7 +14454,7 @@
       <c r="E252" t="s">
         <v>1100</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="1">
         <v>20160809160528</v>
       </c>
       <c r="G252" t="s">
@@ -14446,7 +14470,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9312622</v>
       </c>
@@ -14462,7 +14486,7 @@
       <c r="E253" t="s">
         <v>1116</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="1">
         <v>20160809160640</v>
       </c>
       <c r="G253" t="s">
@@ -14478,7 +14502,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9312623</v>
       </c>
@@ -14494,7 +14518,7 @@
       <c r="E254" t="s">
         <v>1116</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="1">
         <v>20160809160719</v>
       </c>
       <c r="G254" t="s">
@@ -14510,7 +14534,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>9312624</v>
       </c>
@@ -14526,7 +14550,7 @@
       <c r="E255" t="s">
         <v>1144</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="1">
         <v>20160809160745</v>
       </c>
       <c r="G255" t="s">
@@ -14542,7 +14566,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>9312626</v>
       </c>
@@ -14558,7 +14582,7 @@
       <c r="E256" t="s">
         <v>1149</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="1">
         <v>20160809161144</v>
       </c>
       <c r="G256" t="s">
@@ -14574,7 +14598,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9312629</v>
       </c>
@@ -14590,7 +14614,7 @@
       <c r="E257" t="s">
         <v>1154</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="1">
         <v>20160809162016</v>
       </c>
       <c r="G257" t="s">
@@ -14606,7 +14630,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>9312630</v>
       </c>
@@ -14622,7 +14646,7 @@
       <c r="E258" t="s">
         <v>1159</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="1">
         <v>20160809162244</v>
       </c>
       <c r="G258" t="s">
@@ -14638,7 +14662,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>9312631</v>
       </c>
@@ -14654,7 +14678,7 @@
       <c r="E259" t="s">
         <v>1164</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="1">
         <v>20160809162344</v>
       </c>
       <c r="G259" t="s">
@@ -14670,7 +14694,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>9312632</v>
       </c>
@@ -14686,7 +14710,7 @@
       <c r="E260" t="s">
         <v>1168</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="1">
         <v>20160809162402</v>
       </c>
       <c r="G260" t="s">
@@ -14702,7 +14726,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>9312633</v>
       </c>
@@ -14718,7 +14742,7 @@
       <c r="E261" t="s">
         <v>1164</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G261" t="s">
@@ -14734,7 +14758,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>9312634</v>
       </c>
@@ -14750,7 +14774,7 @@
       <c r="E262" t="s">
         <v>1175</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="1">
         <v>20160809163144</v>
       </c>
       <c r="G262" t="s">
@@ -14766,7 +14790,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>9312635</v>
       </c>
@@ -14782,7 +14806,7 @@
       <c r="E263" t="s">
         <v>1175</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="1">
         <v>20160809163343</v>
       </c>
       <c r="G263" t="s">
@@ -14798,7 +14822,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>9312636</v>
       </c>
@@ -14814,7 +14838,7 @@
       <c r="E264" t="s">
         <v>1164</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="1">
         <v>20160809163455</v>
       </c>
       <c r="G264" t="s">
@@ -14830,7 +14854,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>9312637</v>
       </c>
@@ -14846,7 +14870,7 @@
       <c r="E265" t="s">
         <v>1175</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="1">
         <v>20160809163511</v>
       </c>
       <c r="G265" t="s">
@@ -14862,7 +14886,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>9312638</v>
       </c>
@@ -14878,7 +14902,7 @@
       <c r="E266" t="s">
         <v>1164</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="1">
         <v>20160809163529</v>
       </c>
       <c r="G266" t="s">
@@ -14894,7 +14918,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>9312639</v>
       </c>
@@ -14910,7 +14934,7 @@
       <c r="E267" t="s">
         <v>1175</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="1">
         <v>20160809163627</v>
       </c>
       <c r="G267" t="s">
@@ -14926,7 +14950,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>9312640</v>
       </c>
@@ -14942,7 +14966,7 @@
       <c r="E268" t="s">
         <v>1175</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="1">
         <v>20160809163747</v>
       </c>
       <c r="G268" t="s">
@@ -14958,7 +14982,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>9312641</v>
       </c>
@@ -14974,7 +14998,7 @@
       <c r="E269" t="s">
         <v>1175</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="1">
         <v>20160809163904</v>
       </c>
       <c r="G269" t="s">
@@ -14990,7 +15014,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>9312642</v>
       </c>
@@ -15006,7 +15030,7 @@
       <c r="E270" t="s">
         <v>1175</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="1">
         <v>20160809164006</v>
       </c>
       <c r="G270" t="s">
@@ -15022,7 +15046,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>9312643</v>
       </c>
@@ -15038,7 +15062,7 @@
       <c r="E271" t="s">
         <v>1164</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="1">
         <v>20160809164039</v>
       </c>
       <c r="G271" t="s">
@@ -15054,7 +15078,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>9312644</v>
       </c>
@@ -15070,7 +15094,7 @@
       <c r="E272" t="s">
         <v>1164</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="1">
         <v>20160809164319</v>
       </c>
       <c r="G272" t="s">
@@ -15086,7 +15110,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>9312645</v>
       </c>
@@ -15102,7 +15126,7 @@
       <c r="E273" t="s">
         <v>1175</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="1">
         <v>20160809164920</v>
       </c>
       <c r="G273" t="s">
@@ -15118,7 +15142,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>9312646</v>
       </c>
@@ -15134,7 +15158,7 @@
       <c r="E274" t="s">
         <v>1201</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="1">
         <v>20160809165701</v>
       </c>
       <c r="G274" t="s">
@@ -15150,7 +15174,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>9312647</v>
       </c>
@@ -15166,7 +15190,7 @@
       <c r="E275" t="s">
         <v>1206</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="1">
         <v>20160809170409</v>
       </c>
       <c r="G275" t="s">
@@ -15182,7 +15206,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>9312648</v>
       </c>
@@ -15198,7 +15222,7 @@
       <c r="E276" t="s">
         <v>1211</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G276" t="s">
@@ -15214,7 +15238,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>9312649</v>
       </c>
@@ -15230,7 +15254,7 @@
       <c r="E277" t="s">
         <v>1096</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="1">
         <v>20160809170715</v>
       </c>
       <c r="G277" t="s">
@@ -15246,7 +15270,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>9312650</v>
       </c>
@@ -15262,7 +15286,7 @@
       <c r="E278" t="s">
         <v>1211</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="1">
         <v>20160809170920</v>
       </c>
       <c r="G278" t="s">
@@ -15278,7 +15302,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>9312651</v>
       </c>
@@ -15294,7 +15318,7 @@
       <c r="E279" t="s">
         <v>1211</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="1">
         <v>20160809171251</v>
       </c>
       <c r="G279" t="s">
@@ -15310,7 +15334,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9312652</v>
       </c>
@@ -15326,7 +15350,7 @@
       <c r="E280" t="s">
         <v>1211</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="1">
         <v>20160809171434</v>
       </c>
       <c r="G280" t="s">
@@ -15342,7 +15366,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>9312653</v>
       </c>
@@ -15358,7 +15382,7 @@
       <c r="E281" t="s">
         <v>1211</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="1">
         <v>20160809171546</v>
       </c>
       <c r="G281" t="s">
@@ -15374,7 +15398,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>9312654</v>
       </c>
@@ -15390,7 +15414,7 @@
       <c r="E282" t="s">
         <v>1211</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="1">
         <v>20160809171630</v>
       </c>
       <c r="G282" t="s">
@@ -15406,7 +15430,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>9312655</v>
       </c>
@@ -15422,7 +15446,7 @@
       <c r="E283" t="s">
         <v>1211</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="1">
         <v>20160809171715</v>
       </c>
       <c r="G283" t="s">
@@ -15438,7 +15462,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>9312656</v>
       </c>
@@ -15454,7 +15478,7 @@
       <c r="E284" t="s">
         <v>339</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="1">
         <v>20160809172241</v>
       </c>
       <c r="G284" t="s">
@@ -15470,7 +15494,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>9312657</v>
       </c>
@@ -15486,7 +15510,7 @@
       <c r="E285" t="s">
         <v>1233</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="1">
         <v>20160809173303</v>
       </c>
       <c r="G285" t="s">
@@ -15502,7 +15526,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>9312658</v>
       </c>
@@ -15518,7 +15542,7 @@
       <c r="E286" t="s">
         <v>339</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="1">
         <v>20160809173614</v>
       </c>
       <c r="G286" t="s">
@@ -15534,7 +15558,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>9312659</v>
       </c>
@@ -15550,7 +15574,7 @@
       <c r="E287" t="s">
         <v>1233</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="1">
         <v>20160809173639</v>
       </c>
       <c r="G287" t="s">
@@ -15566,7 +15590,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>9312660</v>
       </c>
@@ -15582,7 +15606,7 @@
       <c r="E288" t="s">
         <v>1233</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="1">
         <v>20160809173800</v>
       </c>
       <c r="G288" t="s">
@@ -15598,7 +15622,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>9312661</v>
       </c>
@@ -15614,7 +15638,7 @@
       <c r="E289" t="s">
         <v>1233</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="1">
         <v>20160809173846</v>
       </c>
       <c r="G289" t="s">
@@ -15630,7 +15654,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>9312662</v>
       </c>
@@ -15646,7 +15670,7 @@
       <c r="E290" t="s">
         <v>1233</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="1">
         <v>20160809174008</v>
       </c>
       <c r="G290" t="s">
@@ -15662,7 +15686,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>9312663</v>
       </c>
@@ -15678,7 +15702,7 @@
       <c r="E291" t="s">
         <v>161</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="1">
         <v>20160809174016</v>
       </c>
       <c r="G291" t="s">
@@ -15694,7 +15718,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>9312664</v>
       </c>
@@ -15710,7 +15734,7 @@
       <c r="E292" t="s">
         <v>1233</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="1">
         <v>20160809174124</v>
       </c>
       <c r="G292" t="s">
@@ -15726,7 +15750,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>9312665</v>
       </c>
@@ -15742,7 +15766,7 @@
       <c r="E293" t="s">
         <v>1233</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="1">
         <v>20160809174220</v>
       </c>
       <c r="G293" t="s">
@@ -15758,7 +15782,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>9312666</v>
       </c>
@@ -15774,7 +15798,7 @@
       <c r="E294" t="s">
         <v>1258</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="1">
         <v>20160809174312</v>
       </c>
       <c r="G294" t="s">
@@ -15790,7 +15814,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>9312667</v>
       </c>
@@ -15806,7 +15830,7 @@
       <c r="E295" t="s">
         <v>161</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="1">
         <v>20160809174354</v>
       </c>
       <c r="G295" t="s">
@@ -15822,7 +15846,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>9312668</v>
       </c>
@@ -15838,7 +15862,7 @@
       <c r="E296" t="s">
         <v>1233</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="1">
         <v>20160809174504</v>
       </c>
       <c r="G296" t="s">
@@ -15854,7 +15878,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>9312669</v>
       </c>
@@ -15870,7 +15894,7 @@
       <c r="E297" t="s">
         <v>1233</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="1">
         <v>20160809174607</v>
       </c>
       <c r="G297" t="s">
@@ -15886,7 +15910,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>9312670</v>
       </c>
@@ -15902,7 +15926,7 @@
       <c r="E298" t="s">
         <v>161</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="1">
         <v>20160809174735</v>
       </c>
       <c r="G298" t="s">
@@ -15918,7 +15942,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>9312671</v>
       </c>
@@ -15934,7 +15958,7 @@
       <c r="E299" t="s">
         <v>161</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="1">
         <v>20160809174911</v>
       </c>
       <c r="G299" t="s">
@@ -15950,7 +15974,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>9312672</v>
       </c>
@@ -15966,7 +15990,7 @@
       <c r="E300" t="s">
         <v>161</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="1">
         <v>20160809175048</v>
       </c>
       <c r="G300" t="s">
@@ -15982,7 +16006,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>9312673</v>
       </c>
@@ -15998,7 +16022,7 @@
       <c r="E301" t="s">
         <v>161</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="1">
         <v>20160809175220</v>
       </c>
       <c r="G301" t="s">
@@ -16014,7 +16038,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>9312674</v>
       </c>
@@ -16030,7 +16054,7 @@
       <c r="E302" t="s">
         <v>161</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="1">
         <v>20160809175342</v>
       </c>
       <c r="G302" t="s">
@@ -16046,7 +16070,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>9312675</v>
       </c>
@@ -16062,7 +16086,7 @@
       <c r="E303" t="s">
         <v>343</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="1">
         <v>20160809175458</v>
       </c>
       <c r="G303" t="s">
@@ -16078,7 +16102,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>9312676</v>
       </c>
@@ -16094,7 +16118,7 @@
       <c r="E304" t="s">
         <v>1280</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G304" t="s">
@@ -16110,7 +16134,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>9312677</v>
       </c>
@@ -16126,7 +16150,7 @@
       <c r="E305" t="s">
         <v>1286</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="1">
         <v>20160809181006</v>
       </c>
       <c r="G305" t="s">
@@ -16142,7 +16166,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>9312678</v>
       </c>
@@ -16158,7 +16182,7 @@
       <c r="E306" t="s">
         <v>1290</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="1">
         <v>20160809181455</v>
       </c>
       <c r="G306" t="s">
@@ -16174,7 +16198,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>9312679</v>
       </c>
@@ -16190,7 +16214,7 @@
       <c r="E307" t="s">
         <v>1164</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="1">
         <v>20160809181651</v>
       </c>
       <c r="G307" t="s">
@@ -16206,7 +16230,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>9312680</v>
       </c>
@@ -16222,7 +16246,7 @@
       <c r="E308" t="s">
         <v>1164</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="1">
         <v>20160809182349</v>
       </c>
       <c r="G308" t="s">
@@ -16238,7 +16262,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>9312681</v>
       </c>
@@ -16254,7 +16278,7 @@
       <c r="E309" t="s">
         <v>1280</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G309" t="s">
@@ -16270,7 +16294,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>9312682</v>
       </c>
@@ -16286,7 +16310,7 @@
       <c r="E310" t="s">
         <v>105</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="1">
         <v>20160809183508</v>
       </c>
       <c r="G310" t="s">
@@ -16302,7 +16326,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>9312683</v>
       </c>
@@ -16318,7 +16342,7 @@
       <c r="E311" t="s">
         <v>1280</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G311" t="s">
@@ -16334,7 +16358,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>9312684</v>
       </c>
@@ -16350,7 +16374,7 @@
       <c r="E312" t="s">
         <v>105</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="1">
         <v>20160809184144</v>
       </c>
       <c r="G312" t="s">
@@ -16366,7 +16390,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>9312685</v>
       </c>
@@ -16382,7 +16406,7 @@
       <c r="E313" t="s">
         <v>105</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="1">
         <v>20160809184631</v>
       </c>
       <c r="G313" t="s">
@@ -16398,7 +16422,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>9312686</v>
       </c>
@@ -16414,7 +16438,7 @@
       <c r="E314" t="s">
         <v>105</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="1">
         <v>20160809185235</v>
       </c>
       <c r="G314" t="s">
@@ -16430,7 +16454,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9312687</v>
       </c>
@@ -16446,7 +16470,7 @@
       <c r="E315" t="s">
         <v>105</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="1">
         <v>20160809185733</v>
       </c>
       <c r="G315" t="s">
@@ -16462,7 +16486,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9312688</v>
       </c>
@@ -16478,7 +16502,7 @@
       <c r="E316" t="s">
         <v>105</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="1">
         <v>20160809190314</v>
       </c>
       <c r="G316" t="s">
@@ -16494,7 +16518,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>9312689</v>
       </c>
@@ -16510,7 +16534,7 @@
       <c r="E317" t="s">
         <v>105</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="1">
         <v>20160809190624</v>
       </c>
       <c r="G317" t="s">
@@ -16526,7 +16550,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>9312690</v>
       </c>
@@ -16542,7 +16566,7 @@
       <c r="E318" t="s">
         <v>1319</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="1">
         <v>20160809195953</v>
       </c>
       <c r="G318" t="s">
@@ -16558,7 +16582,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>9312691</v>
       </c>
@@ -16574,7 +16598,7 @@
       <c r="E319" t="s">
         <v>1319</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="1">
         <v>20160809200146</v>
       </c>
       <c r="G319" t="s">
@@ -16590,7 +16614,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9312692</v>
       </c>
@@ -16606,7 +16630,7 @@
       <c r="E320" t="s">
         <v>1319</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="1">
         <v>20160809200249</v>
       </c>
       <c r="G320" t="s">
@@ -16622,7 +16646,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>9312693</v>
       </c>
@@ -16638,7 +16662,7 @@
       <c r="E321" t="s">
         <v>1319</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G321" t="s">
@@ -16654,7 +16678,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9312694</v>
       </c>
@@ -16670,7 +16694,7 @@
       <c r="E322" t="s">
         <v>1280</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G322" t="s">
@@ -16686,7 +16710,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>9312695</v>
       </c>
@@ -16702,7 +16726,7 @@
       <c r="E323" t="s">
         <v>1319</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="1">
         <v>20160809200755</v>
       </c>
       <c r="G323" t="s">
@@ -16718,7 +16742,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>9312696</v>
       </c>
@@ -16734,7 +16758,7 @@
       <c r="E324" t="s">
         <v>1319</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="1">
         <v>20160809200857</v>
       </c>
       <c r="G324" t="s">
@@ -16750,7 +16774,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>9312697</v>
       </c>
@@ -16766,7 +16790,7 @@
       <c r="E325" t="s">
         <v>1319</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="1">
         <v>20160809200945</v>
       </c>
       <c r="G325" t="s">
@@ -16782,7 +16806,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>9312698</v>
       </c>
@@ -16798,7 +16822,7 @@
       <c r="E326" t="s">
         <v>1338</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="1">
         <v>20160809201858</v>
       </c>
       <c r="G326" t="s">
@@ -16814,7 +16838,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>9312699</v>
       </c>
@@ -16830,7 +16854,7 @@
       <c r="E327" t="s">
         <v>1343</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="1">
         <v>20160809202636</v>
       </c>
       <c r="G327" t="s">
@@ -16846,7 +16870,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>9312706</v>
       </c>
@@ -16862,7 +16886,7 @@
       <c r="E328" t="s">
         <v>1348</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="1">
         <v>20160809210718</v>
       </c>
       <c r="G328" t="s">
@@ -16878,7 +16902,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>9312708</v>
       </c>
@@ -16894,7 +16918,7 @@
       <c r="E329" t="s">
         <v>1353</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="1">
         <v>20160809000000</v>
       </c>
       <c r="G329" t="s">
@@ -16910,7 +16934,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>9312709</v>
       </c>
@@ -16926,7 +16950,7 @@
       <c r="E330" t="s">
         <v>1358</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="1">
         <v>20160809211721</v>
       </c>
       <c r="G330" t="s">
@@ -16942,7 +16966,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>9312710</v>
       </c>
@@ -16958,7 +16982,7 @@
       <c r="E331" t="s">
         <v>1358</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="1">
         <v>20160809211809</v>
       </c>
       <c r="G331" t="s">
@@ -16974,7 +16998,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>9312711</v>
       </c>
@@ -16990,7 +17014,7 @@
       <c r="E332" t="s">
         <v>1358</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="1">
         <v>20160809211855</v>
       </c>
       <c r="G332" t="s">
@@ -17006,7 +17030,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>9312712</v>
       </c>
@@ -17022,7 +17046,7 @@
       <c r="E333" t="s">
         <v>1358</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="1">
         <v>20160809211934</v>
       </c>
       <c r="G333" t="s">
@@ -17038,7 +17062,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>9312713</v>
       </c>
@@ -17054,7 +17078,7 @@
       <c r="E334" t="s">
         <v>1358</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="1">
         <v>20160809212016</v>
       </c>
       <c r="G334" t="s">
@@ -17070,7 +17094,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>9312714</v>
       </c>
@@ -17086,7 +17110,7 @@
       <c r="E335" t="s">
         <v>1358</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="1">
         <v>20160809212058</v>
       </c>
       <c r="G335" t="s">
@@ -17102,7 +17126,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>9312716</v>
       </c>
@@ -17118,7 +17142,7 @@
       <c r="E336" t="s">
         <v>1373</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="1">
         <v>20160809213816</v>
       </c>
       <c r="G336" t="s">
@@ -17134,7 +17158,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>9312717</v>
       </c>
@@ -17150,7 +17174,7 @@
       <c r="E337" t="s">
         <v>1378</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="1">
         <v>20160810075023</v>
       </c>
       <c r="G337" t="s">
@@ -17166,7 +17190,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>9312718</v>
       </c>
@@ -17182,7 +17206,7 @@
       <c r="E338" t="s">
         <v>1358</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="1">
         <v>20160810085553</v>
       </c>
       <c r="G338" t="s">
@@ -17198,7 +17222,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>9312719</v>
       </c>
@@ -17214,7 +17238,7 @@
       <c r="E339" t="s">
         <v>1385</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="1">
         <v>20160810090605</v>
       </c>
       <c r="G339" t="s">
@@ -17230,7 +17254,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>9312720</v>
       </c>
@@ -17246,7 +17270,7 @@
       <c r="E340" t="s">
         <v>1390</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="1">
         <v>20160810094833</v>
       </c>
       <c r="G340" t="s">
@@ -17262,7 +17286,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>9312721</v>
       </c>
@@ -17278,7 +17302,7 @@
       <c r="E341" t="s">
         <v>1395</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="1">
         <v>20160810095133</v>
       </c>
       <c r="G341" t="s">
@@ -17294,7 +17318,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>9312722</v>
       </c>
@@ -17310,7 +17334,7 @@
       <c r="E342" t="s">
         <v>161</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="1">
         <v>20160810100514</v>
       </c>
       <c r="G342" t="s">
@@ -17326,7 +17350,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9312723</v>
       </c>
@@ -17342,7 +17366,7 @@
       <c r="E343" t="s">
         <v>1404</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G343" t="s">
@@ -17358,7 +17382,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9312724</v>
       </c>
@@ -17374,7 +17398,7 @@
       <c r="E344" t="s">
         <v>1404</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G344" t="s">
@@ -17390,7 +17414,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>9312725</v>
       </c>
@@ -17406,7 +17430,7 @@
       <c r="E345" t="s">
         <v>44</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="1">
         <v>20160810102049</v>
       </c>
       <c r="G345" t="s">
@@ -17422,7 +17446,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>9312726</v>
       </c>
@@ -17438,7 +17462,7 @@
       <c r="E346" t="s">
         <v>44</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="1">
         <v>20160810102253</v>
       </c>
       <c r="G346" t="s">
@@ -17454,7 +17478,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>9312727</v>
       </c>
@@ -17470,7 +17494,7 @@
       <c r="E347" t="s">
         <v>1417</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="1">
         <v>20160810103849</v>
       </c>
       <c r="G347" t="s">
@@ -17486,7 +17510,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>9312728</v>
       </c>
@@ -17502,7 +17526,7 @@
       <c r="E348" t="s">
         <v>1422</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="1">
         <v>20160810105541</v>
       </c>
       <c r="G348" t="s">
@@ -17518,7 +17542,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>9312729</v>
       </c>
@@ -17534,7 +17558,7 @@
       <c r="E349" t="s">
         <v>459</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="1">
         <v>20160810105548</v>
       </c>
       <c r="G349" t="s">
@@ -17550,7 +17574,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>9312730</v>
       </c>
@@ -17566,7 +17590,7 @@
       <c r="E350" t="s">
         <v>1431</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="1">
         <v>20160810110712</v>
       </c>
       <c r="G350" t="s">
@@ -17582,7 +17606,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>9312731</v>
       </c>
@@ -17598,7 +17622,7 @@
       <c r="E351" t="s">
         <v>1436</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="1">
         <v>20160810111427</v>
       </c>
       <c r="G351" t="s">
@@ -17614,7 +17638,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9312732</v>
       </c>
@@ -17630,7 +17654,7 @@
       <c r="E352" t="s">
         <v>1441</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="1">
         <v>20160810111839</v>
       </c>
       <c r="G352" t="s">
@@ -17646,7 +17670,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>9312733</v>
       </c>
@@ -17662,7 +17686,7 @@
       <c r="E353" t="s">
         <v>105</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="1">
         <v>20160810112357</v>
       </c>
       <c r="G353" t="s">
@@ -17678,7 +17702,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9325051</v>
       </c>
@@ -17694,7 +17718,7 @@
       <c r="E354" t="s">
         <v>1450</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="1">
         <v>20160810113412</v>
       </c>
       <c r="G354" t="s">
@@ -17710,7 +17734,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>9325052</v>
       </c>
@@ -17726,7 +17750,7 @@
       <c r="E355" t="s">
         <v>1450</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="1">
         <v>20160810113905</v>
       </c>
       <c r="G355" t="s">
@@ -17742,7 +17766,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>9325053</v>
       </c>
@@ -17758,7 +17782,7 @@
       <c r="E356" t="s">
         <v>1450</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="1">
         <v>20160810114033</v>
       </c>
       <c r="G356" t="s">
@@ -17774,7 +17798,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>9325054</v>
       </c>
@@ -17790,7 +17814,7 @@
       <c r="E357" t="s">
         <v>105</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="1">
         <v>20160810114113</v>
       </c>
       <c r="G357" t="s">
@@ -17806,7 +17830,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>9325055</v>
       </c>
@@ -17822,7 +17846,7 @@
       <c r="E358" t="s">
         <v>105</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="1">
         <v>20160810114346</v>
       </c>
       <c r="G358" t="s">
@@ -17838,7 +17862,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>9325056</v>
       </c>
@@ -17854,7 +17878,7 @@
       <c r="E359" t="s">
         <v>1450</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="1">
         <v>20160810114405</v>
       </c>
       <c r="G359" t="s">
@@ -17870,7 +17894,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>9325057</v>
       </c>
@@ -17886,7 +17910,7 @@
       <c r="E360" t="s">
         <v>1450</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="1">
         <v>20160810114448</v>
       </c>
       <c r="G360" t="s">
@@ -17902,7 +17926,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>9325058</v>
       </c>
@@ -17918,7 +17942,7 @@
       <c r="E361" t="s">
         <v>1450</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="1">
         <v>20160810114543</v>
       </c>
       <c r="G361" t="s">
@@ -17934,7 +17958,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>9325059</v>
       </c>
@@ -17950,7 +17974,7 @@
       <c r="E362" t="s">
         <v>1450</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="1">
         <v>20160810114625</v>
       </c>
       <c r="G362" t="s">
@@ -17966,7 +17990,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>9325060</v>
       </c>
@@ -17982,7 +18006,7 @@
       <c r="E363" t="s">
         <v>105</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="1">
         <v>20160810114733</v>
       </c>
       <c r="G363" t="s">
@@ -17998,7 +18022,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>9325061</v>
       </c>
@@ -18014,7 +18038,7 @@
       <c r="E364" t="s">
         <v>105</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="1">
         <v>20160810122146</v>
       </c>
       <c r="G364" t="s">
@@ -18030,7 +18054,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>9325062</v>
       </c>
@@ -18046,7 +18070,7 @@
       <c r="E365" t="s">
         <v>1280</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G365" t="s">
@@ -18062,7 +18086,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>9325063</v>
       </c>
@@ -18078,7 +18102,7 @@
       <c r="E366" t="s">
         <v>105</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="1">
         <v>20160810122536</v>
       </c>
       <c r="G366" t="s">
@@ -18094,7 +18118,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>9325064</v>
       </c>
@@ -18110,7 +18134,7 @@
       <c r="E367" t="s">
         <v>105</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="1">
         <v>20160810122951</v>
       </c>
       <c r="G367" t="s">
@@ -18126,7 +18150,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>9325067</v>
       </c>
@@ -18142,7 +18166,7 @@
       <c r="E368" t="s">
         <v>161</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="1">
         <v>20160810132307</v>
       </c>
       <c r="G368" t="s">
@@ -18158,7 +18182,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>9325068</v>
       </c>
@@ -18174,7 +18198,7 @@
       <c r="E369" t="s">
         <v>1485</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="1">
         <v>20160810132626</v>
       </c>
       <c r="G369" t="s">
@@ -18190,7 +18214,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>9325069</v>
       </c>
@@ -18206,7 +18230,7 @@
       <c r="E370" t="s">
         <v>161</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="1">
         <v>20160810132957</v>
       </c>
       <c r="G370" t="s">
@@ -18222,7 +18246,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>9325071</v>
       </c>
@@ -18238,7 +18262,7 @@
       <c r="E371" t="s">
         <v>161</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="1">
         <v>20160810133323</v>
       </c>
       <c r="G371" t="s">
@@ -18254,7 +18278,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>9325072</v>
       </c>
@@ -18270,7 +18294,7 @@
       <c r="E372" t="s">
         <v>1493</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="1">
         <v>20160810133658</v>
       </c>
       <c r="G372" t="s">
@@ -18286,7 +18310,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>9325073</v>
       </c>
@@ -18302,7 +18326,7 @@
       <c r="E373" t="s">
         <v>1498</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="1">
         <v>20160810134012</v>
       </c>
       <c r="G373" t="s">
@@ -18318,7 +18342,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>9325074</v>
       </c>
@@ -18334,7 +18358,7 @@
       <c r="E374" t="s">
         <v>1503</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="1">
         <v>20160810134242</v>
       </c>
       <c r="G374" t="s">
@@ -18350,7 +18374,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>9325075</v>
       </c>
@@ -18366,7 +18390,7 @@
       <c r="E375" t="s">
         <v>1508</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="1">
         <v>20160810134435</v>
       </c>
       <c r="G375" t="s">
@@ -18382,7 +18406,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>9325076</v>
       </c>
@@ -18398,7 +18422,7 @@
       <c r="E376" t="s">
         <v>1508</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="1">
         <v>20160810134544</v>
       </c>
       <c r="G376" t="s">
@@ -18414,7 +18438,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>9325077</v>
       </c>
@@ -18430,7 +18454,7 @@
       <c r="E377" t="s">
         <v>1508</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="1">
         <v>20160810134640</v>
       </c>
       <c r="G377" t="s">
@@ -18446,7 +18470,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>9325078</v>
       </c>
@@ -18462,7 +18486,7 @@
       <c r="E378" t="s">
         <v>1517</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="1">
         <v>20160810134645</v>
       </c>
       <c r="G378" t="s">
@@ -18478,7 +18502,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>9325079</v>
       </c>
@@ -18494,7 +18518,7 @@
       <c r="E379" t="s">
         <v>1508</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="1">
         <v>20160810134912</v>
       </c>
       <c r="G379" t="s">
@@ -18510,7 +18534,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>9325080</v>
       </c>
@@ -18526,7 +18550,7 @@
       <c r="E380" t="s">
         <v>585</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="1">
         <v>20160810135023</v>
       </c>
       <c r="G380" t="s">
@@ -18542,7 +18566,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>9325081</v>
       </c>
@@ -18558,7 +18582,7 @@
       <c r="E381" t="s">
         <v>1508</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="1">
         <v>20160810135046</v>
       </c>
       <c r="G381" t="s">
@@ -18574,7 +18598,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>9325082</v>
       </c>
@@ -18590,7 +18614,7 @@
       <c r="E382" t="s">
         <v>1508</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="1">
         <v>20160810135142</v>
       </c>
       <c r="G382" t="s">
@@ -18606,7 +18630,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>9325083</v>
       </c>
@@ -18622,7 +18646,7 @@
       <c r="E383" t="s">
         <v>1532</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="1">
         <v>20160810135143</v>
       </c>
       <c r="G383" t="s">
@@ -18638,7 +18662,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>9325084</v>
       </c>
@@ -18654,7 +18678,7 @@
       <c r="E384" t="s">
         <v>1508</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="1">
         <v>20160810135345</v>
       </c>
       <c r="G384" t="s">
@@ -18670,7 +18694,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>9325085</v>
       </c>
@@ -18686,7 +18710,7 @@
       <c r="E385" t="s">
         <v>1508</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="1">
         <v>20160810135456</v>
       </c>
       <c r="G385" t="s">
@@ -18702,7 +18726,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>9325086</v>
       </c>
@@ -18718,7 +18742,7 @@
       <c r="E386" t="s">
         <v>161</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="1">
         <v>20160810140148</v>
       </c>
       <c r="G386" t="s">
@@ -18734,7 +18758,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>9325087</v>
       </c>
@@ -18750,7 +18774,7 @@
       <c r="E387" t="s">
         <v>1544</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="1">
         <v>20160810142854</v>
       </c>
       <c r="G387" t="s">
@@ -18766,7 +18790,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9325088</v>
       </c>
@@ -18782,7 +18806,7 @@
       <c r="E388" t="s">
         <v>1549</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="1">
         <v>20160810143635</v>
       </c>
       <c r="G388" t="s">
@@ -18798,7 +18822,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>9325089</v>
       </c>
@@ -18814,7 +18838,7 @@
       <c r="E389" t="s">
         <v>1554</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="1">
         <v>20160810143749</v>
       </c>
       <c r="G389" t="s">
@@ -18830,7 +18854,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>9325090</v>
       </c>
@@ -18846,7 +18870,7 @@
       <c r="E390" t="s">
         <v>1559</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="1">
         <v>20160810143944</v>
       </c>
       <c r="G390" t="s">
@@ -18862,7 +18886,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>9325091</v>
       </c>
@@ -18878,7 +18902,7 @@
       <c r="E391" t="s">
         <v>1564</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="1">
         <v>20160810144809</v>
       </c>
       <c r="G391" t="s">
@@ -18894,7 +18918,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>9325092</v>
       </c>
@@ -18910,7 +18934,7 @@
       <c r="E392" t="s">
         <v>1569</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="1">
         <v>20160810150635</v>
       </c>
       <c r="G392" t="s">
@@ -18926,7 +18950,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9325093</v>
       </c>
@@ -18942,7 +18966,7 @@
       <c r="E393" t="s">
         <v>1574</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="1">
         <v>20160810151049</v>
       </c>
       <c r="G393" t="s">
@@ -18958,7 +18982,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>9325094</v>
       </c>
@@ -18974,7 +18998,7 @@
       <c r="E394" t="s">
         <v>1574</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="1">
         <v>20160810151220</v>
       </c>
       <c r="G394" t="s">
@@ -18990,7 +19014,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9325095</v>
       </c>
@@ -19006,7 +19030,7 @@
       <c r="E395" t="s">
         <v>1574</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="1">
         <v>20160810151319</v>
       </c>
       <c r="G395" t="s">
@@ -19022,7 +19046,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>9325096</v>
       </c>
@@ -19038,7 +19062,7 @@
       <c r="E396" t="s">
         <v>1574</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="1">
         <v>20160810151421</v>
       </c>
       <c r="G396" t="s">
@@ -19054,7 +19078,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9325097</v>
       </c>
@@ -19070,7 +19094,7 @@
       <c r="E397" t="s">
         <v>1574</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="1">
         <v>20160810151507</v>
       </c>
       <c r="G397" t="s">
@@ -19086,7 +19110,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>9325098</v>
       </c>
@@ -19102,7 +19126,7 @@
       <c r="E398" t="s">
         <v>1574</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="1">
         <v>20160810151608</v>
       </c>
       <c r="G398" t="s">
@@ -19118,7 +19142,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>9325099</v>
       </c>
@@ -19134,7 +19158,7 @@
       <c r="E399" t="s">
         <v>1574</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="1">
         <v>20160810151709</v>
       </c>
       <c r="G399" t="s">
@@ -19150,7 +19174,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>9325100</v>
       </c>
@@ -19166,7 +19190,7 @@
       <c r="E400" t="s">
         <v>1574</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="1">
         <v>20160810151925</v>
       </c>
       <c r="G400" t="s">
@@ -19182,7 +19206,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>9325101</v>
       </c>
@@ -19198,7 +19222,7 @@
       <c r="E401" t="s">
         <v>1593</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="1">
         <v>20160810152329</v>
       </c>
       <c r="G401" t="s">
@@ -19214,7 +19238,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>9325102</v>
       </c>
@@ -19230,7 +19254,7 @@
       <c r="E402" t="s">
         <v>1598</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="1">
         <v>20160810152506</v>
       </c>
       <c r="G402" t="s">
@@ -19246,7 +19270,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>9325948</v>
       </c>
@@ -19262,7 +19286,7 @@
       <c r="E403" t="s">
         <v>1603</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="1">
         <v>20160810155040</v>
       </c>
       <c r="G403" t="s">
@@ -19278,7 +19302,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>9325949</v>
       </c>
@@ -19294,7 +19318,7 @@
       <c r="E404" t="s">
         <v>1608</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="1">
         <v>20160810155438</v>
       </c>
       <c r="G404" t="s">
@@ -19310,7 +19334,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>9325950</v>
       </c>
@@ -19326,7 +19350,7 @@
       <c r="E405" t="s">
         <v>1612</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="1">
         <v>20160810155822</v>
       </c>
       <c r="G405" t="s">
@@ -19342,7 +19366,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9325951</v>
       </c>
@@ -19358,7 +19382,7 @@
       <c r="E406" t="s">
         <v>1617</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="1">
         <v>20160810160513</v>
       </c>
       <c r="G406" t="s">
@@ -19374,7 +19398,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>9325952</v>
       </c>
@@ -19390,7 +19414,7 @@
       <c r="E407" t="s">
         <v>1622</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="1">
         <v>20160810161540</v>
       </c>
       <c r="G407" t="s">
@@ -19406,7 +19430,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>9325953</v>
       </c>
@@ -19422,7 +19446,7 @@
       <c r="E408" t="s">
         <v>1622</v>
       </c>
-      <c r="F408">
+      <c r="F408" s="1">
         <v>20160810161714</v>
       </c>
       <c r="G408" t="s">
@@ -19438,7 +19462,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>9325954</v>
       </c>
@@ -19454,7 +19478,7 @@
       <c r="E409" t="s">
         <v>1622</v>
       </c>
-      <c r="F409">
+      <c r="F409" s="1">
         <v>20160810161807</v>
       </c>
       <c r="G409" t="s">
@@ -19470,7 +19494,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>9325955</v>
       </c>
@@ -19486,7 +19510,7 @@
       <c r="E410" t="s">
         <v>1622</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="1">
         <v>20160810161854</v>
       </c>
       <c r="G410" t="s">
@@ -19502,7 +19526,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>9325956</v>
       </c>
@@ -19518,7 +19542,7 @@
       <c r="E411" t="s">
         <v>1622</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="1">
         <v>20160810161946</v>
       </c>
       <c r="G411" t="s">
@@ -19534,7 +19558,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>9325957</v>
       </c>
@@ -19550,7 +19574,7 @@
       <c r="E412" t="s">
         <v>1622</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="1">
         <v>20160810162042</v>
       </c>
       <c r="G412" t="s">
@@ -19566,7 +19590,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>9325958</v>
       </c>
@@ -19582,7 +19606,7 @@
       <c r="E413" t="s">
         <v>1622</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="1">
         <v>20160810162128</v>
       </c>
       <c r="G413" t="s">
@@ -19598,7 +19622,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>9325959</v>
       </c>
@@ -19614,7 +19638,7 @@
       <c r="E414" t="s">
         <v>1639</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="1">
         <v>20160810162701</v>
       </c>
       <c r="G414" t="s">
@@ -19630,7 +19654,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9325960</v>
       </c>
@@ -19646,7 +19670,7 @@
       <c r="E415" t="s">
         <v>1644</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="1">
         <v>20160810163709</v>
       </c>
       <c r="G415" t="s">
@@ -19662,7 +19686,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>9325961</v>
       </c>
@@ -19678,7 +19702,7 @@
       <c r="E416" t="s">
         <v>1649</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="1">
         <v>20160810165120</v>
       </c>
       <c r="G416" t="s">
@@ -19694,7 +19718,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>9325962</v>
       </c>
@@ -19710,7 +19734,7 @@
       <c r="E417" t="s">
         <v>220</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="1">
         <v>20160810165948</v>
       </c>
       <c r="G417" t="s">
@@ -19726,7 +19750,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9325963</v>
       </c>
@@ -19742,7 +19766,7 @@
       <c r="E418" t="s">
         <v>1658</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="1">
         <v>20160810170031</v>
       </c>
       <c r="G418" t="s">
@@ -19758,7 +19782,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9325964</v>
       </c>
@@ -19774,7 +19798,7 @@
       <c r="E419" t="s">
         <v>1663</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="1">
         <v>20160810171949</v>
       </c>
       <c r="G419" t="s">
@@ -19790,7 +19814,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>9325965</v>
       </c>
@@ -19806,7 +19830,7 @@
       <c r="E420" t="s">
         <v>1668</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="1">
         <v>20160810173315</v>
       </c>
       <c r="G420" t="s">
@@ -19822,7 +19846,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>9325966</v>
       </c>
@@ -19838,7 +19862,7 @@
       <c r="E421" t="s">
         <v>1673</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="1">
         <v>20160810173927</v>
       </c>
       <c r="G421" t="s">
@@ -19854,7 +19878,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9325967</v>
       </c>
@@ -19870,7 +19894,7 @@
       <c r="E422" t="s">
         <v>1678</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="1">
         <v>20160810174602</v>
       </c>
       <c r="G422" t="s">
@@ -19886,7 +19910,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>9325968</v>
       </c>
@@ -19902,7 +19926,7 @@
       <c r="E423" t="s">
         <v>1683</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="1">
         <v>20160810174650</v>
       </c>
       <c r="G423" t="s">
@@ -19918,7 +19942,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9325969</v>
       </c>
@@ -19934,7 +19958,7 @@
       <c r="E424" t="s">
         <v>1688</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="1">
         <v>20160810175004</v>
       </c>
       <c r="G424" t="s">
@@ -19950,7 +19974,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>9325970</v>
       </c>
@@ -19966,7 +19990,7 @@
       <c r="E425" t="s">
         <v>1693</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G425" t="s">
@@ -19982,7 +20006,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>9325971</v>
       </c>
@@ -19998,7 +20022,7 @@
       <c r="E426" t="s">
         <v>1698</v>
       </c>
-      <c r="F426">
+      <c r="F426" s="1">
         <v>20160810183335</v>
       </c>
       <c r="G426" t="s">
@@ -20014,7 +20038,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9325972</v>
       </c>
@@ -20030,7 +20054,7 @@
       <c r="E427" t="s">
         <v>1703</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="1">
         <v>20160810183723</v>
       </c>
       <c r="G427" t="s">
@@ -20046,7 +20070,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9325973</v>
       </c>
@@ -20062,7 +20086,7 @@
       <c r="E428" t="s">
         <v>1708</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="1">
         <v>20160810184237</v>
       </c>
       <c r="G428" t="s">
@@ -20078,7 +20102,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>9325974</v>
       </c>
@@ -20094,7 +20118,7 @@
       <c r="E429" t="s">
         <v>1713</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G429" t="s">
@@ -20110,7 +20134,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9325975</v>
       </c>
@@ -20126,7 +20150,7 @@
       <c r="E430" t="s">
         <v>1717</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="1">
         <v>20160810000000</v>
       </c>
       <c r="G430" t="s">
@@ -20142,7 +20166,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9325976</v>
       </c>
@@ -20158,7 +20182,7 @@
       <c r="E431" t="s">
         <v>1722</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="1">
         <v>20160810204014</v>
       </c>
       <c r="G431" t="s">
@@ -20174,7 +20198,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>9325977</v>
       </c>
@@ -20190,7 +20214,7 @@
       <c r="E432" t="s">
         <v>1722</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="1">
         <v>20160810204255</v>
       </c>
       <c r="G432" t="s">
@@ -20206,7 +20230,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9325978</v>
       </c>
@@ -20222,7 +20246,7 @@
       <c r="E433" t="s">
         <v>1728</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="1">
         <v>20160810205952</v>
       </c>
       <c r="G433" t="s">
@@ -20238,7 +20262,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>9325979</v>
       </c>
@@ -20254,7 +20278,7 @@
       <c r="E434" t="s">
         <v>1733</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="1">
         <v>20160810221828</v>
       </c>
       <c r="G434" t="s">
@@ -20270,7 +20294,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>9325980</v>
       </c>
@@ -20286,7 +20310,7 @@
       <c r="E435" t="s">
         <v>1737</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="1">
         <v>20160810221957</v>
       </c>
       <c r="G435" t="s">
@@ -20302,7 +20326,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9325981</v>
       </c>
@@ -20318,7 +20342,7 @@
       <c r="E436" t="s">
         <v>1742</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="1">
         <v>20160810225143</v>
       </c>
       <c r="G436" t="s">
@@ -20334,7 +20358,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>9325982</v>
       </c>
@@ -20350,7 +20374,7 @@
       <c r="E437" t="s">
         <v>1747</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="1">
         <v>20160811073742</v>
       </c>
       <c r="G437" t="s">
@@ -20366,7 +20390,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>9325983</v>
       </c>
@@ -20382,7 +20406,7 @@
       <c r="E438" t="s">
         <v>1752</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="1">
         <v>20160811085942</v>
       </c>
       <c r="G438" t="s">
@@ -20398,7 +20422,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>9325984</v>
       </c>
@@ -20414,7 +20438,7 @@
       <c r="E439" t="s">
         <v>1757</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="1">
         <v>20160811094937</v>
       </c>
       <c r="G439" t="s">
@@ -20430,7 +20454,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>9325985</v>
       </c>
@@ -20446,7 +20470,7 @@
       <c r="E440" t="s">
         <v>1762</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="1">
         <v>20160811000000</v>
       </c>
       <c r="G440" t="s">
@@ -20462,7 +20486,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>9325986</v>
       </c>
@@ -20478,7 +20502,7 @@
       <c r="E441" t="s">
         <v>1767</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="1">
         <v>20160811102920</v>
       </c>
       <c r="G441" t="s">
@@ -20494,7 +20518,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9325987</v>
       </c>
@@ -20510,7 +20534,7 @@
       <c r="E442" t="s">
         <v>1772</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="1">
         <v>20160811104238</v>
       </c>
       <c r="G442" t="s">
@@ -20526,7 +20550,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>9325988</v>
       </c>
@@ -20542,7 +20566,7 @@
       <c r="E443" t="s">
         <v>161</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="1">
         <v>20160811111313</v>
       </c>
       <c r="G443" t="s">
@@ -20558,7 +20582,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>9336794</v>
       </c>
@@ -20574,7 +20598,7 @@
       <c r="E444" t="s">
         <v>1781</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="1">
         <v>20160811125713</v>
       </c>
       <c r="G444" t="s">
@@ -20590,7 +20614,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>9336795</v>
       </c>
@@ -20606,7 +20630,7 @@
       <c r="E445" t="s">
         <v>585</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="1">
         <v>20160811152250</v>
       </c>
       <c r="G445" t="s">
@@ -20622,7 +20646,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>9337651</v>
       </c>
@@ -20638,7 +20662,7 @@
       <c r="E446" t="s">
         <v>1790</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="1">
         <v>20160811155346</v>
       </c>
       <c r="G446" t="s">
@@ -20654,7 +20678,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>9337652</v>
       </c>
@@ -20670,7 +20694,7 @@
       <c r="E447" t="s">
         <v>1796</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="1">
         <v>20160811175927</v>
       </c>
       <c r="G447" t="s">
@@ -20686,7 +20710,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>9337653</v>
       </c>
@@ -20702,7 +20726,7 @@
       <c r="E448" t="s">
         <v>44</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="1">
         <v>20160811184144</v>
       </c>
       <c r="G448" t="s">
@@ -20718,7 +20742,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>9337654</v>
       </c>
@@ -20734,7 +20758,7 @@
       <c r="E449" t="s">
         <v>1806</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="1">
         <v>20160811210417</v>
       </c>
       <c r="G449" t="s">
@@ -20750,7 +20774,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>9337655</v>
       </c>
@@ -20766,7 +20790,7 @@
       <c r="E450" t="s">
         <v>1810</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="1">
         <v>20160811212411</v>
       </c>
       <c r="G450" t="s">
@@ -20782,7 +20806,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>9337656</v>
       </c>
@@ -20798,7 +20822,7 @@
       <c r="E451" t="s">
         <v>339</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="1">
         <v>20160812105752</v>
       </c>
       <c r="G451" t="s">
@@ -20814,7 +20838,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>9349704</v>
       </c>
@@ -20830,7 +20854,7 @@
       <c r="E452" t="s">
         <v>1819</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="1">
         <v>20160812130609</v>
       </c>
       <c r="G452" t="s">
@@ -20846,7 +20870,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>9349705</v>
       </c>
@@ -20862,7 +20886,7 @@
       <c r="E453" t="s">
         <v>998</v>
       </c>
-      <c r="F453">
+      <c r="F453" s="1">
         <v>20160812140559</v>
       </c>
       <c r="G453" t="s">
@@ -20878,7 +20902,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>9349707</v>
       </c>
@@ -20894,7 +20918,7 @@
       <c r="E454" t="s">
         <v>998</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="1">
         <v>20160812140656</v>
       </c>
       <c r="G454" t="s">
@@ -20910,7 +20934,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>9349708</v>
       </c>
@@ -20926,7 +20950,7 @@
       <c r="E455" t="s">
         <v>998</v>
       </c>
-      <c r="F455">
+      <c r="F455" s="1">
         <v>20160812140743</v>
       </c>
       <c r="G455" t="s">
@@ -20942,7 +20966,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>9349709</v>
       </c>
@@ -20958,7 +20982,7 @@
       <c r="E456" t="s">
         <v>998</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="1">
         <v>20160812141011</v>
       </c>
       <c r="G456" t="s">
@@ -20974,7 +20998,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>9350608</v>
       </c>
@@ -20990,7 +21014,7 @@
       <c r="E457" t="s">
         <v>1688</v>
       </c>
-      <c r="F457">
+      <c r="F457" s="1">
         <v>20160812000000</v>
       </c>
       <c r="G457" t="s">
@@ -21006,7 +21030,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>9350609</v>
       </c>
@@ -21022,7 +21046,7 @@
       <c r="E458" t="s">
         <v>1833</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="1">
         <v>20160812204059</v>
       </c>
       <c r="G458" t="s">
@@ -21038,7 +21062,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>9350610</v>
       </c>
@@ -21054,7 +21078,7 @@
       <c r="E459" t="s">
         <v>1838</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="1">
         <v>20160812232424</v>
       </c>
       <c r="G459" t="s">
@@ -21070,7 +21094,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>9350611</v>
       </c>
@@ -21086,7 +21110,7 @@
       <c r="E460" t="s">
         <v>1838</v>
       </c>
-      <c r="F460">
+      <c r="F460" s="1">
         <v>20160812232513</v>
       </c>
       <c r="G460" t="s">
@@ -21102,7 +21126,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>9350612</v>
       </c>
@@ -21118,7 +21142,7 @@
       <c r="E461" t="s">
         <v>1838</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="1">
         <v>20160812232648</v>
       </c>
       <c r="G461" t="s">
@@ -21134,7 +21158,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>9350613</v>
       </c>
@@ -21150,7 +21174,7 @@
       <c r="E462" t="s">
         <v>1838</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="1">
         <v>20160812232727</v>
       </c>
       <c r="G462" t="s">
@@ -21166,7 +21190,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>9350614</v>
       </c>
@@ -21182,7 +21206,7 @@
       <c r="E463" t="s">
         <v>1838</v>
       </c>
-      <c r="F463">
+      <c r="F463" s="1">
         <v>20160812232846</v>
       </c>
       <c r="G463" t="s">
@@ -21198,7 +21222,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>9350616</v>
       </c>
@@ -21214,7 +21238,7 @@
       <c r="E464" t="s">
         <v>1851</v>
       </c>
-      <c r="F464">
+      <c r="F464" s="1">
         <v>20160813000000</v>
       </c>
       <c r="G464" t="s">
@@ -21230,7 +21254,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>9363335</v>
       </c>
@@ -21246,7 +21270,7 @@
       <c r="E465" t="s">
         <v>370</v>
       </c>
-      <c r="F465">
+      <c r="F465" s="1">
         <v>20160814205403</v>
       </c>
       <c r="G465" t="s">
@@ -21262,7 +21286,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>9363515</v>
       </c>
@@ -21278,7 +21302,7 @@
       <c r="E466" t="s">
         <v>1861</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="1">
         <v>20160815184633</v>
       </c>
       <c r="G466" t="s">
@@ -21294,7 +21318,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>9363517</v>
       </c>
@@ -21310,7 +21334,7 @@
       <c r="E467" t="s">
         <v>1866</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="1">
         <v>20160816100055</v>
       </c>
       <c r="G467" t="s">
@@ -21326,7 +21350,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>9363518</v>
       </c>
@@ -21342,7 +21366,7 @@
       <c r="E468" t="s">
         <v>1871</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="1">
         <v>20160816100425</v>
       </c>
       <c r="G468" t="s">
@@ -21358,7 +21382,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>9363795</v>
       </c>
@@ -21374,7 +21398,7 @@
       <c r="E469" t="s">
         <v>1876</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="1">
         <v>20160816145125</v>
       </c>
       <c r="G469" t="s">
@@ -21390,7 +21414,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>9363796</v>
       </c>
@@ -21406,7 +21430,7 @@
       <c r="E470" t="s">
         <v>1881</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="1">
         <v>20160816152846</v>
       </c>
       <c r="G470" t="s">
@@ -21422,7 +21446,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>9363877</v>
       </c>
@@ -21438,7 +21462,7 @@
       <c r="E471" t="s">
         <v>1886</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="1">
         <v>20160816000000</v>
       </c>
       <c r="G471" t="s">
@@ -21454,7 +21478,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>9363879</v>
       </c>
@@ -21470,7 +21494,7 @@
       <c r="E472" t="s">
         <v>1891</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="1">
         <v>20160816205722</v>
       </c>
       <c r="G472" t="s">
@@ -21486,7 +21510,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>9363880</v>
       </c>
@@ -21502,7 +21526,7 @@
       <c r="E473" t="s">
         <v>1896</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="1">
         <v>20160817111407</v>
       </c>
       <c r="G473" t="s">
@@ -21518,7 +21542,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>9390855</v>
       </c>
@@ -21534,7 +21558,7 @@
       <c r="E474" t="s">
         <v>555</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="1">
         <v>20160818155954</v>
       </c>
       <c r="G474" t="s">
@@ -21550,7 +21574,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>9390856</v>
       </c>
@@ -21566,7 +21590,7 @@
       <c r="E475" t="s">
         <v>555</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="1">
         <v>20160818160152</v>
       </c>
       <c r="G475" t="s">
@@ -21582,7 +21606,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>9390858</v>
       </c>
@@ -21598,7 +21622,7 @@
       <c r="E476" t="s">
         <v>555</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="1">
         <v>20160818181328</v>
       </c>
       <c r="G476" t="s">
@@ -21614,7 +21638,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>9390859</v>
       </c>
@@ -21630,7 +21654,7 @@
       <c r="E477" t="s">
         <v>555</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="1">
         <v>20160818181431</v>
       </c>
       <c r="G477" t="s">
@@ -21646,7 +21670,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>9390860</v>
       </c>
@@ -21662,7 +21686,7 @@
       <c r="E478" t="s">
         <v>555</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="1">
         <v>20160818181654</v>
       </c>
       <c r="G478" t="s">
@@ -21678,7 +21702,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>9390861</v>
       </c>
@@ -21694,7 +21718,7 @@
       <c r="E479" t="s">
         <v>1917</v>
       </c>
-      <c r="F479">
+      <c r="F479" s="1">
         <v>20160803000000</v>
       </c>
       <c r="G479" t="s">
@@ -21710,7 +21734,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>9390864</v>
       </c>
@@ -21726,7 +21750,7 @@
       <c r="E480" t="s">
         <v>1922</v>
       </c>
-      <c r="F480">
+      <c r="F480" s="1">
         <v>20160819113024</v>
       </c>
       <c r="G480" t="s">
@@ -21742,7 +21766,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>9390865</v>
       </c>
@@ -21758,7 +21782,7 @@
       <c r="E481" t="s">
         <v>1928</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="1">
         <v>20160819113337</v>
       </c>
       <c r="G481" t="s">
@@ -21774,7 +21798,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>9401555</v>
       </c>
@@ -21790,7 +21814,7 @@
       <c r="E482" t="s">
         <v>399</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="1">
         <v>20160819122730</v>
       </c>
       <c r="G482" t="s">
@@ -21806,7 +21830,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>9401557</v>
       </c>
@@ -21822,7 +21846,7 @@
       <c r="E483" t="s">
         <v>399</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="1">
         <v>20160819123227</v>
       </c>
       <c r="G483" t="s">
@@ -21838,7 +21862,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>9414500</v>
       </c>
@@ -21854,7 +21878,7 @@
       <c r="E484" t="s">
         <v>339</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="1">
         <v>20160822143609</v>
       </c>
       <c r="G484" t="s">
@@ -21870,7 +21894,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>9414501</v>
       </c>
@@ -21886,7 +21910,7 @@
       <c r="E485" t="s">
         <v>1945</v>
       </c>
-      <c r="F485">
+      <c r="F485" s="1">
         <v>20160822151247</v>
       </c>
       <c r="G485" t="s">
@@ -21902,7 +21926,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>9414507</v>
       </c>
@@ -21918,7 +21942,7 @@
       <c r="E486" t="s">
         <v>434</v>
       </c>
-      <c r="F486">
+      <c r="F486" s="1">
         <v>20160822175327</v>
       </c>
       <c r="G486" t="s">
@@ -21934,7 +21958,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>9440993</v>
       </c>
@@ -21950,7 +21974,7 @@
       <c r="E487" t="s">
         <v>1955</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="1">
         <v>20160824000000</v>
       </c>
       <c r="G487" t="s">
@@ -21966,7 +21990,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>9440994</v>
       </c>
@@ -21982,7 +22006,7 @@
       <c r="E488" t="s">
         <v>938</v>
       </c>
-      <c r="F488">
+      <c r="F488" s="1">
         <v>20160824205006</v>
       </c>
       <c r="G488" t="s">
@@ -21998,7 +22022,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>9465143</v>
       </c>
@@ -22014,7 +22038,7 @@
       <c r="E489" t="s">
         <v>1079</v>
       </c>
-      <c r="F489">
+      <c r="F489" s="1">
         <v>20160826134554</v>
       </c>
       <c r="G489" t="s">
@@ -22030,7 +22054,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>9480238</v>
       </c>
@@ -22046,7 +22070,7 @@
       <c r="E490" t="s">
         <v>1968</v>
       </c>
-      <c r="F490">
+      <c r="F490" s="1">
         <v>20160829103129</v>
       </c>
       <c r="G490" t="s">
@@ -22062,7 +22086,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>9480386</v>
       </c>
@@ -22078,7 +22102,7 @@
       <c r="E491" t="s">
         <v>105</v>
       </c>
-      <c r="F491">
+      <c r="F491" s="1">
         <v>20160829132520</v>
       </c>
       <c r="G491" t="s">
@@ -22094,7 +22118,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>9480387</v>
       </c>
@@ -22110,7 +22134,7 @@
       <c r="E492" t="s">
         <v>44</v>
       </c>
-      <c r="F492">
+      <c r="F492" s="1">
         <v>20160829150454</v>
       </c>
       <c r="G492" t="s">
@@ -22126,7 +22150,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>9480478</v>
       </c>
@@ -22142,7 +22166,7 @@
       <c r="E493" t="s">
         <v>1984</v>
       </c>
-      <c r="F493">
+      <c r="F493" s="1">
         <v>20160829000000</v>
       </c>
       <c r="G493" t="s">
@@ -22158,7 +22182,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>9480479</v>
       </c>
@@ -22174,7 +22198,7 @@
       <c r="E494" t="s">
         <v>212</v>
       </c>
-      <c r="F494">
+      <c r="F494" s="1">
         <v>20160829183054</v>
       </c>
       <c r="G494" t="s">
@@ -22190,7 +22214,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>9480480</v>
       </c>
@@ -22206,7 +22230,7 @@
       <c r="E495" t="s">
         <v>1290</v>
       </c>
-      <c r="F495">
+      <c r="F495" s="1">
         <v>20160830113821</v>
       </c>
       <c r="G495" t="s">
@@ -22222,7 +22246,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>9495332</v>
       </c>
@@ -22238,7 +22262,7 @@
       <c r="E496" t="s">
         <v>370</v>
       </c>
-      <c r="F496">
+      <c r="F496" s="1">
         <v>20160830114801</v>
       </c>
       <c r="G496" t="s">
@@ -22254,7 +22278,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>9496328</v>
       </c>
@@ -22270,7 +22294,7 @@
       <c r="E497" t="s">
         <v>924</v>
       </c>
-      <c r="F497">
+      <c r="F497" s="1">
         <v>20160830180429</v>
       </c>
       <c r="G497" t="s">
@@ -22286,7 +22310,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>9496329</v>
       </c>
@@ -22302,7 +22326,7 @@
       <c r="E498" t="s">
         <v>924</v>
       </c>
-      <c r="F498">
+      <c r="F498" s="1">
         <v>20160830181221</v>
       </c>
       <c r="G498" t="s">
@@ -22319,17 +22343,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>